--- a/localAndStateAgencies-NC.xlsx
+++ b/localAndStateAgencies-NC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1498">
   <si>
     <t>AGENCY</t>
   </si>
@@ -23,4222 +23,4225 @@
     <t>COUNTY</t>
   </si>
   <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>ABERDEEN PD</t>
+  </si>
+  <si>
+    <t>ABERDEEN</t>
+  </si>
+  <si>
+    <t>MOORE</t>
+  </si>
+  <si>
+    <t>NC0630100</t>
+  </si>
+  <si>
+    <t>AHOSKIE PD</t>
+  </si>
+  <si>
+    <t>AHOSKIE</t>
+  </si>
+  <si>
+    <t>HERTFORD</t>
+  </si>
+  <si>
+    <t>NC0460100</t>
+  </si>
+  <si>
+    <t>ALBEMARLE PD</t>
+  </si>
+  <si>
+    <t>ALBEMARLE</t>
+  </si>
+  <si>
+    <t>STANLY</t>
+  </si>
+  <si>
+    <t>NC0840100</t>
+  </si>
+  <si>
+    <t>*SHERIFF'S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0840000</t>
+  </si>
+  <si>
+    <t>ALEXANDER MILLS PD</t>
+  </si>
+  <si>
+    <t>ALEXANDER MILLS</t>
+  </si>
+  <si>
+    <t>RUTHERFORD</t>
+  </si>
+  <si>
+    <t>NC0810500</t>
+  </si>
+  <si>
+    <t>ANDREWS PD</t>
+  </si>
+  <si>
+    <t>ANDREWS</t>
+  </si>
+  <si>
+    <t>CHEROKEE</t>
+  </si>
+  <si>
+    <t>NC0200100</t>
+  </si>
+  <si>
+    <t>ANGIER PD</t>
+  </si>
+  <si>
+    <t>ANGIER</t>
+  </si>
+  <si>
+    <t>HARNETT</t>
+  </si>
+  <si>
+    <t>NC0430200</t>
+  </si>
+  <si>
+    <t>APEX PD</t>
+  </si>
+  <si>
+    <t>APEX</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>NC0920200</t>
+  </si>
+  <si>
+    <t>APPALACHIAN STATE UNIVERSSECURITY DEPARTMENT</t>
+  </si>
+  <si>
+    <t>BOONE</t>
+  </si>
+  <si>
+    <t>WATAUGA</t>
+  </si>
+  <si>
+    <t>NC0950300</t>
+  </si>
+  <si>
+    <t>ASHEBORO PD</t>
+  </si>
+  <si>
+    <t>ASHEBORO</t>
+  </si>
+  <si>
+    <t>RANDOLPH</t>
+  </si>
+  <si>
+    <t>NC0760100</t>
+  </si>
+  <si>
+    <t>*SHERIFF’S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0760000</t>
+  </si>
+  <si>
+    <t>ASHEVILLE PD</t>
+  </si>
+  <si>
+    <t>ASHEVILLE</t>
+  </si>
+  <si>
+    <t>BUNCOMBE</t>
+  </si>
+  <si>
+    <t>NC0110100</t>
+  </si>
+  <si>
+    <t>NC0110000</t>
+  </si>
+  <si>
+    <t>*WOODFIN PD</t>
+  </si>
+  <si>
+    <t>NC0110600</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP G</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NCNHP0700</t>
+  </si>
+  <si>
+    <t>*STATE BUREAU OF INVESTIGATION</t>
+  </si>
+  <si>
+    <t>NCBCIW000</t>
+  </si>
+  <si>
+    <t>ASKEWVILLE PD</t>
+  </si>
+  <si>
+    <t>WINDSOR</t>
+  </si>
+  <si>
+    <t>BERTIE</t>
+  </si>
+  <si>
+    <t>NC0080500</t>
+  </si>
+  <si>
+    <t>ATKINSON PD</t>
+  </si>
+  <si>
+    <t>ATKINSON</t>
+  </si>
+  <si>
+    <t>PENDER</t>
+  </si>
+  <si>
+    <t>NC0710400</t>
+  </si>
+  <si>
+    <t>ATLANTIC BEACH PD</t>
+  </si>
+  <si>
+    <t>ATLANTIC BEACH</t>
+  </si>
+  <si>
+    <t>CARTERET</t>
+  </si>
+  <si>
+    <t>NC0160300</t>
+  </si>
+  <si>
+    <t>*PINEKNOLL SHORES PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARTERET </t>
+  </si>
+  <si>
+    <t>NC0160700</t>
+  </si>
+  <si>
+    <t>ATTORNEY GENERAL’S OFFICE</t>
+  </si>
+  <si>
+    <t>RALEIGH</t>
+  </si>
+  <si>
+    <t>NCD0J0000</t>
+  </si>
+  <si>
+    <t>AULANDER PD</t>
+  </si>
+  <si>
+    <t>AULANDER</t>
+  </si>
+  <si>
+    <t>NC0080100</t>
+  </si>
+  <si>
+    <t>AURORA PD</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>BEAUFORT</t>
+  </si>
+  <si>
+    <t>NC0070200</t>
+  </si>
+  <si>
+    <t>AUTRYVILLE PD</t>
+  </si>
+  <si>
+    <t>AUTRYVILLE</t>
+  </si>
+  <si>
+    <t>SAMPSON</t>
+  </si>
+  <si>
+    <t>NC0820600</t>
+  </si>
+  <si>
+    <t>AYDEN PD</t>
+  </si>
+  <si>
+    <t>AYDEN</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>NC0740100</t>
+  </si>
+  <si>
+    <t>BAILEY PD</t>
+  </si>
+  <si>
+    <t>BAILEY</t>
+  </si>
+  <si>
+    <t>NASH</t>
+  </si>
+  <si>
+    <t>NC0640300</t>
+  </si>
+  <si>
+    <t>BAKERSVILLE PD</t>
+  </si>
+  <si>
+    <t>BAKERSVILLE</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>NC0610200</t>
+  </si>
+  <si>
+    <t>NC0610000</t>
+  </si>
+  <si>
+    <t>BANNER ELK PD</t>
+  </si>
+  <si>
+    <t>BANNER ELK</t>
+  </si>
+  <si>
+    <t>AVERY</t>
+  </si>
+  <si>
+    <t>NC0060200</t>
+  </si>
+  <si>
+    <t>BATTLEBORO PD</t>
+  </si>
+  <si>
+    <t>BATTLEBORO</t>
+  </si>
+  <si>
+    <t>NC0640400</t>
+  </si>
+  <si>
+    <t>BAYBORO PD</t>
+  </si>
+  <si>
+    <t>BAYBORO</t>
+  </si>
+  <si>
+    <t>PAMLICO</t>
+  </si>
+  <si>
+    <t>NC0690100</t>
+  </si>
+  <si>
+    <t>NC0690000</t>
+  </si>
+  <si>
+    <t>BEAUFORT PD</t>
+  </si>
+  <si>
+    <t>NC0160100</t>
+  </si>
+  <si>
+    <t>NC0160000</t>
+  </si>
+  <si>
+    <t>BELHAVEN PD</t>
+  </si>
+  <si>
+    <t>BELHAVEN</t>
+  </si>
+  <si>
+    <t>NC0070300</t>
+  </si>
+  <si>
+    <t>BELMONT PD</t>
+  </si>
+  <si>
+    <t>BELMONT</t>
+  </si>
+  <si>
+    <t>GASTON</t>
+  </si>
+  <si>
+    <t>NC0360100</t>
+  </si>
+  <si>
+    <t>BENSON PD</t>
+  </si>
+  <si>
+    <t>BENSON</t>
+  </si>
+  <si>
+    <t>JOHNSTON</t>
+  </si>
+  <si>
+    <t>NC0510200</t>
+  </si>
+  <si>
+    <t>BESSEMER CITY PD</t>
+  </si>
+  <si>
+    <t>BESSEMER CITY</t>
+  </si>
+  <si>
+    <t>NC0360200</t>
+  </si>
+  <si>
+    <t>BETHEL PD</t>
+  </si>
+  <si>
+    <t>BETHEL</t>
+  </si>
+  <si>
+    <t>NC0740400</t>
+  </si>
+  <si>
+    <t>BEULAVILLE PD</t>
+  </si>
+  <si>
+    <t>BEULAVILLE</t>
+  </si>
+  <si>
+    <t>DUPLIN</t>
+  </si>
+  <si>
+    <t>NC0310200</t>
+  </si>
+  <si>
+    <t>BILTMORE FOREST PD</t>
+  </si>
+  <si>
+    <t>BILTMORE FOREST</t>
+  </si>
+  <si>
+    <t>NC0110300</t>
+  </si>
+  <si>
+    <t>BISCOE PD</t>
+  </si>
+  <si>
+    <t>BISCOE</t>
+  </si>
+  <si>
+    <t>MONTGOMERY</t>
+  </si>
+  <si>
+    <t>NC0620200</t>
+  </si>
+  <si>
+    <t>BLACK CREEK PD</t>
+  </si>
+  <si>
+    <t>BLACK CREEK</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>NC0980200</t>
+  </si>
+  <si>
+    <t>BLACK MOUNTAIN PD</t>
+  </si>
+  <si>
+    <t>BLACK MOUNTAIN</t>
+  </si>
+  <si>
+    <t>NC0110200</t>
+  </si>
+  <si>
+    <t>BLADENBORO PD</t>
+  </si>
+  <si>
+    <t>BLADENBORO</t>
+  </si>
+  <si>
+    <t>BLADEN</t>
+  </si>
+  <si>
+    <t>NC0090100</t>
+  </si>
+  <si>
+    <t>BLOWING ROCK PD</t>
+  </si>
+  <si>
+    <t>BLOWING ROCK</t>
+  </si>
+  <si>
+    <t>NC0950200</t>
+  </si>
+  <si>
+    <t>BOILING SPRING 'LAKES PD</t>
+  </si>
+  <si>
+    <t>BOILING SPRING</t>
+  </si>
+  <si>
+    <t>BRUNSWICK</t>
+  </si>
+  <si>
+    <t>NC0100500</t>
+  </si>
+  <si>
+    <t>BOILING SPRINGS PD</t>
+  </si>
+  <si>
+    <t>BOILING SPRINGS</t>
+  </si>
+  <si>
+    <t>CLEVELAND</t>
+  </si>
+  <si>
+    <t>NC0230300</t>
+  </si>
+  <si>
+    <t>BOLTON PD</t>
+  </si>
+  <si>
+    <t>BOLTON</t>
+  </si>
+  <si>
+    <t>COLUMBUS</t>
+  </si>
+  <si>
+    <t>NC0240700</t>
+  </si>
+  <si>
+    <t>BOONE PD</t>
+  </si>
+  <si>
+    <t>NC0950100</t>
+  </si>
+  <si>
+    <t>*APPALACHIAN STATE UNIVERSSECURITY DEPARTMENT</t>
+  </si>
+  <si>
+    <t>NC0950000</t>
+  </si>
+  <si>
+    <t>BOONVILLE PD</t>
+  </si>
+  <si>
+    <t>BOONVILLE</t>
+  </si>
+  <si>
+    <t>YADKIN</t>
+  </si>
+  <si>
+    <t>NC0990S00</t>
+  </si>
+  <si>
+    <t>BREVARD PD</t>
+  </si>
+  <si>
+    <t>BREVARD</t>
+  </si>
+  <si>
+    <t>TRANSYLVANIA</t>
+  </si>
+  <si>
+    <t>NC0880100</t>
+  </si>
+  <si>
+    <t>NC0880000</t>
+  </si>
+  <si>
+    <t>BROOKFORD PD</t>
+  </si>
+  <si>
+    <t>HICKORY</t>
+  </si>
+  <si>
+    <t>CATAWBA</t>
+  </si>
+  <si>
+    <t>NC0180500</t>
+  </si>
+  <si>
+    <t>BRYSON CITY PD</t>
+  </si>
+  <si>
+    <t>BRYSON CITY</t>
+  </si>
+  <si>
+    <t>SWAIN</t>
+  </si>
+  <si>
+    <t>NC0070100</t>
+  </si>
+  <si>
+    <t>NC0870000</t>
+  </si>
+  <si>
+    <t>BUNN PD</t>
+  </si>
+  <si>
+    <t>BUNN</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>NC0350400</t>
+  </si>
+  <si>
+    <t>BURGAW PD</t>
+  </si>
+  <si>
+    <t>BURGAW</t>
+  </si>
+  <si>
+    <t>NC0710100</t>
+  </si>
+  <si>
+    <t>NC071P000</t>
+  </si>
+  <si>
+    <t>BURLINGTON PD</t>
+  </si>
+  <si>
+    <t>BURLINGTON</t>
+  </si>
+  <si>
+    <t>ALAMANCE</t>
+  </si>
+  <si>
+    <t>NC0Ó10100</t>
+  </si>
+  <si>
+    <t>BURNSVILLE PD</t>
+  </si>
+  <si>
+    <t>BURNSVILLE</t>
+  </si>
+  <si>
+    <t>YANCEY</t>
+  </si>
+  <si>
+    <t>NCI000100</t>
+  </si>
+  <si>
+    <t>NC1000000</t>
+  </si>
+  <si>
+    <t>BUTNER PD</t>
+  </si>
+  <si>
+    <t>BUTNER</t>
+  </si>
+  <si>
+    <t>GRANVILLE</t>
+  </si>
+  <si>
+    <t>NC0390200</t>
+  </si>
+  <si>
+    <t>CANDOR PD</t>
+  </si>
+  <si>
+    <t>CANDOR</t>
+  </si>
+  <si>
+    <t>NC0620300</t>
+  </si>
+  <si>
+    <t>CANTON PD</t>
+  </si>
+  <si>
+    <t>CANTON</t>
+  </si>
+  <si>
+    <t>HAYWOOD</t>
+  </si>
+  <si>
+    <t>NC0440100</t>
+  </si>
+  <si>
+    <t>CAPE CARTERET PD</t>
+  </si>
+  <si>
+    <t>SWANSBORO</t>
+  </si>
+  <si>
+    <t>NC0160500</t>
+  </si>
+  <si>
+    <t>CAROLINA BEACH PD</t>
+  </si>
+  <si>
+    <t>CAROLINA BEACH</t>
+  </si>
+  <si>
+    <t>NEW HANOVER</t>
+  </si>
+  <si>
+    <t>NC0650100</t>
+  </si>
+  <si>
+    <t>CARRBORO PD</t>
+  </si>
+  <si>
+    <t>CARRBORO</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>NC0680300</t>
+  </si>
+  <si>
+    <t>CARTHAGE PD</t>
+  </si>
+  <si>
+    <t>CARTHAGE</t>
+  </si>
+  <si>
+    <t>NC0630500</t>
+  </si>
+  <si>
+    <t>NC0630000</t>
+  </si>
+  <si>
+    <t>CARY PD</t>
+  </si>
+  <si>
+    <t>CARY</t>
+  </si>
+  <si>
+    <t>NC0920300</t>
+  </si>
+  <si>
+    <t>NCBCIC000</t>
+  </si>
+  <si>
+    <t>CENTERVILLE PD</t>
+  </si>
+  <si>
+    <t>LOUISBURG</t>
+  </si>
+  <si>
+    <t>NC0350500</t>
+  </si>
+  <si>
+    <t>CHADBOURN PD</t>
+  </si>
+  <si>
+    <t>CHADBOURN</t>
+  </si>
+  <si>
+    <t>NC0240200</t>
+  </si>
+  <si>
+    <t>CHAPEL HILL PD</t>
+  </si>
+  <si>
+    <t>CHAPEL HILL</t>
+  </si>
+  <si>
+    <t>NC0680100</t>
+  </si>
+  <si>
+    <t>CHARLOTTE PD</t>
+  </si>
+  <si>
+    <t>CHARLOTTE</t>
+  </si>
+  <si>
+    <t>MECKLENBURG</t>
+  </si>
+  <si>
+    <t>NC0600100</t>
+  </si>
+  <si>
+    <t>*MECKLENBURG COUNTY PD</t>
+  </si>
+  <si>
+    <t>NC0600200</t>
+  </si>
+  <si>
+    <t>NC0600000</t>
+  </si>
+  <si>
+    <t>CHEROKEE PD</t>
+  </si>
+  <si>
+    <t>NC0870200</t>
+  </si>
+  <si>
+    <t>CHERRYVILLE PD</t>
+  </si>
+  <si>
+    <t>CHERRYVILLE</t>
+  </si>
+  <si>
+    <t>NC0360300</t>
+  </si>
+  <si>
+    <t>CHINA GROVE PD</t>
+  </si>
+  <si>
+    <t>CHINA GROVE</t>
+  </si>
+  <si>
+    <t>ROWAN</t>
+  </si>
+  <si>
+    <t>NC0800100</t>
+  </si>
+  <si>
+    <t>CHOCOWINITY PD</t>
+  </si>
+  <si>
+    <t>CHOCOWINITY</t>
+  </si>
+  <si>
+    <t>NC0070400</t>
+  </si>
+  <si>
+    <t>CLAREMONT PD</t>
+  </si>
+  <si>
+    <t>CLAREMONT</t>
+  </si>
+  <si>
+    <t>CATAWBÄ</t>
+  </si>
+  <si>
+    <t>NC0180600</t>
+  </si>
+  <si>
+    <t>CLARKTON PD</t>
+  </si>
+  <si>
+    <t>CLARKTON</t>
+  </si>
+  <si>
+    <t>NC0090200</t>
+  </si>
+  <si>
+    <t>CLAYTON PD</t>
+  </si>
+  <si>
+    <t>CLAYTON</t>
+  </si>
+  <si>
+    <t>NC0510300</t>
+  </si>
+  <si>
+    <t>CLINTON PD</t>
+  </si>
+  <si>
+    <t>CLINTON</t>
+  </si>
+  <si>
+    <t>NC0820100</t>
+  </si>
+  <si>
+    <t>NC0820000</t>
+  </si>
+  <si>
+    <t>CLYDE PD</t>
+  </si>
+  <si>
+    <t>CLYDE</t>
+  </si>
+  <si>
+    <t>NC0440300</t>
+  </si>
+  <si>
+    <t>COATS PD</t>
+  </si>
+  <si>
+    <t>COATS</t>
+  </si>
+  <si>
+    <t>NC0430300</t>
+  </si>
+  <si>
+    <t>COFIELD PD</t>
+  </si>
+  <si>
+    <t>COFIELD</t>
+  </si>
+  <si>
+    <t>NC0460500</t>
+  </si>
+  <si>
+    <t>COLERAIN PD</t>
+  </si>
+  <si>
+    <t>COLERAIN</t>
+  </si>
+  <si>
+    <t>NC0080600</t>
+  </si>
+  <si>
+    <t>COLUMBIA PD</t>
+  </si>
+  <si>
+    <t>COLUMBIA</t>
+  </si>
+  <si>
+    <t>TYRRELL</t>
+  </si>
+  <si>
+    <t>NC0890100</t>
+  </si>
+  <si>
+    <t>NC0890000</t>
+  </si>
+  <si>
+    <t>COLUMBUS COUNTY BUREAU OF IDENTIFICATION</t>
+  </si>
+  <si>
+    <t>WHITEVILLE</t>
+  </si>
+  <si>
+    <t>NC0240100</t>
+  </si>
+  <si>
+    <t>COLUMBUS COUNTY RURAL PD</t>
+  </si>
+  <si>
+    <t>NC0240800</t>
+  </si>
+  <si>
+    <t>COLUMBUS PD</t>
+  </si>
+  <si>
+    <t>POLK</t>
+  </si>
+  <si>
+    <t>NC0750300</t>
+  </si>
+  <si>
+    <t>NC0750000</t>
+  </si>
+  <si>
+    <t>COMO PD</t>
+  </si>
+  <si>
+    <t>COMO</t>
+  </si>
+  <si>
+    <t>NC0460600</t>
+  </si>
+  <si>
+    <t>CONCORD PD</t>
+  </si>
+  <si>
+    <t>CONCORD</t>
+  </si>
+  <si>
+    <t>CABARRUS</t>
+  </si>
+  <si>
+    <t>NC0130100</t>
+  </si>
+  <si>
+    <t>NC0130000</t>
+  </si>
+  <si>
+    <t>CONOVER PD</t>
+  </si>
+  <si>
+    <t>CONOVER</t>
+  </si>
+  <si>
+    <t>NC0180100</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL STATION</t>
+  </si>
+  <si>
+    <t>NCNHP1000</t>
+  </si>
+  <si>
+    <t>CONWAY PD</t>
+  </si>
+  <si>
+    <t>CONWAY</t>
+  </si>
+  <si>
+    <t>NORTHAMPTON</t>
+  </si>
+  <si>
+    <t>NC0660200</t>
+  </si>
+  <si>
+    <t>CORNELIUS PD</t>
+  </si>
+  <si>
+    <t>CORNELIUS</t>
+  </si>
+  <si>
+    <t>NC0600400</t>
+  </si>
+  <si>
+    <t>CRAMERTON PD</t>
+  </si>
+  <si>
+    <t>CRAMERTON</t>
+  </si>
+  <si>
+    <t>NC0361100</t>
+  </si>
+  <si>
+    <t>CREEDMOOR PD</t>
+  </si>
+  <si>
+    <t>CREEDMOOR</t>
+  </si>
+  <si>
+    <t>NC0390300</t>
+  </si>
+  <si>
+    <t>CROSSNORE PD</t>
+  </si>
+  <si>
+    <t>CROSSNORE</t>
+  </si>
+  <si>
+    <t>NC0060300</t>
+  </si>
+  <si>
+    <t>DALLAS PD</t>
+  </si>
+  <si>
+    <t>DALLAS</t>
+  </si>
+  <si>
+    <t>NC0360400</t>
+  </si>
+  <si>
+    <t>DANBURY PD</t>
+  </si>
+  <si>
+    <t>DANBURY</t>
+  </si>
+  <si>
+    <t>STOKES</t>
+  </si>
+  <si>
+    <t>NC0850200</t>
+  </si>
+  <si>
+    <t>SHERIFF'S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0850000</t>
+  </si>
+  <si>
+    <t>DAVIDSON PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIDSON </t>
+  </si>
+  <si>
+    <t>NC0600500</t>
+  </si>
+  <si>
+    <t>DENTON PD</t>
+  </si>
+  <si>
+    <t>DENTON</t>
+  </si>
+  <si>
+    <t>DAVIDSON</t>
+  </si>
+  <si>
+    <t>NC0290300</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF MOTOR VEHICLES</t>
+  </si>
+  <si>
+    <t>NCDMV0000</t>
+  </si>
+  <si>
+    <t>DOBSON' PD</t>
+  </si>
+  <si>
+    <t>DOBSON</t>
+  </si>
+  <si>
+    <t>SURRY</t>
+  </si>
+  <si>
+    <t>NC0860400</t>
+  </si>
+  <si>
+    <t>DREXEL PD</t>
+  </si>
+  <si>
+    <t>DREXEL</t>
+  </si>
+  <si>
+    <t>BURKE</t>
+  </si>
+  <si>
+    <t>NC0120300</t>
+  </si>
+  <si>
+    <t>DUBLIN PD</t>
+  </si>
+  <si>
+    <t>DUBLIN</t>
+  </si>
+  <si>
+    <t>NC0090000</t>
+  </si>
+  <si>
+    <t>DUNN PD</t>
+  </si>
+  <si>
+    <t>DUNN</t>
+  </si>
+  <si>
+    <t>NC0430100</t>
+  </si>
+  <si>
+    <t>DURHAM PD</t>
+  </si>
+  <si>
+    <t>DURHAM</t>
+  </si>
+  <si>
+    <t>NC0320100</t>
+  </si>
+  <si>
+    <t>'SHERIFF’S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0320000</t>
+  </si>
+  <si>
+    <t>EAST BEND PD</t>
+  </si>
+  <si>
+    <t>EAST BEND</t>
+  </si>
+  <si>
+    <t>NC0990400</t>
+  </si>
+  <si>
+    <t>EAST SPENCER PD</t>
+  </si>
+  <si>
+    <t>EAST SPENCER</t>
+  </si>
+  <si>
+    <t>NC0800200</t>
+  </si>
+  <si>
+    <t>EDEN PD</t>
+  </si>
+  <si>
+    <t>EDEN</t>
+  </si>
+  <si>
+    <t>ROCKINGHAM</t>
+  </si>
+  <si>
+    <t>NC0790100</t>
+  </si>
+  <si>
+    <t>EDENTON PD</t>
+  </si>
+  <si>
+    <t>EDENTON</t>
+  </si>
+  <si>
+    <t>CHOWAN</t>
+  </si>
+  <si>
+    <t>NC0210100</t>
+  </si>
+  <si>
+    <t>NC0210000</t>
+  </si>
+  <si>
+    <t>ELIZABETH CITY PD</t>
+  </si>
+  <si>
+    <t>ELIZABETH CITY</t>
+  </si>
+  <si>
+    <t>PASQUOTANK</t>
+  </si>
+  <si>
+    <t>NC0700100</t>
+  </si>
+  <si>
+    <t>NC0700000</t>
+  </si>
+  <si>
+    <t>ELIZABETHTOWN PD</t>
+  </si>
+  <si>
+    <t>ELIZABETHTOWN</t>
+  </si>
+  <si>
+    <t>NC0090300</t>
+  </si>
+  <si>
+    <t>NCNHP0200</t>
+  </si>
+  <si>
+    <t>ELK PARK PD</t>
+  </si>
+  <si>
+    <t>ELK PARK</t>
+  </si>
+  <si>
+    <t>NC0060400</t>
+  </si>
+  <si>
+    <t>ELKIN PD</t>
+  </si>
+  <si>
+    <t>ELKIN</t>
+  </si>
+  <si>
+    <t>NC0860100</t>
+  </si>
+  <si>
+    <t>ELLERBE PD</t>
+  </si>
+  <si>
+    <t>ELLERBE</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>NC0770100</t>
+  </si>
+  <si>
+    <t>ELM CITY PD</t>
+  </si>
+  <si>
+    <t>ELM CITY</t>
+  </si>
+  <si>
+    <t>NC0980300</t>
+  </si>
+  <si>
+    <t>ELON COLLEGE PD</t>
+  </si>
+  <si>
+    <t>ELON COLLEGE</t>
+  </si>
+  <si>
+    <t>NC0010200</t>
+  </si>
+  <si>
+    <t>EMERALD ISLE PD</t>
+  </si>
+  <si>
+    <t>MOREHEAD CITY</t>
+  </si>
+  <si>
+    <t>NC0160600</t>
+  </si>
+  <si>
+    <t>ENFIELD PD</t>
+  </si>
+  <si>
+    <t>ENFIELD</t>
+  </si>
+  <si>
+    <t>HALIFAX</t>
+  </si>
+  <si>
+    <t>NC0420100</t>
+  </si>
+  <si>
+    <t>ERWIN PD</t>
+  </si>
+  <si>
+    <t>ERWIN</t>
+  </si>
+  <si>
+    <t>NC0430500</t>
+  </si>
+  <si>
+    <t>EUREKA PD</t>
+  </si>
+  <si>
+    <t>EUREKA</t>
+  </si>
+  <si>
+    <t>WAYNE</t>
+  </si>
+  <si>
+    <t>NC0960200</t>
+  </si>
+  <si>
+    <t>FAIR BLUFF PD</t>
+  </si>
+  <si>
+    <t>FAIR BLUFF</t>
+  </si>
+  <si>
+    <t>.COLUMBUS</t>
+  </si>
+  <si>
+    <t>NC0240300</t>
+  </si>
+  <si>
+    <t>FAIRMONT PD</t>
+  </si>
+  <si>
+    <t>FAIRMONT</t>
+  </si>
+  <si>
+    <t>ROBESON</t>
+  </si>
+  <si>
+    <t>NC0780500</t>
+  </si>
+  <si>
+    <t>FAISON PD</t>
+  </si>
+  <si>
+    <t>FAISON</t>
+  </si>
+  <si>
+    <t>NC0310300</t>
+  </si>
+  <si>
+    <t>FARMVILLE PD</t>
+  </si>
+  <si>
+    <t>FARMVILLE</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>NC0740200</t>
+  </si>
+  <si>
+    <t>FAYETTEVILLE PD</t>
+  </si>
+  <si>
+    <t>FAYETTEVILLE</t>
+  </si>
+  <si>
+    <t>CUMBERLAND</t>
+  </si>
+  <si>
+    <t>NC0260100</t>
+  </si>
+  <si>
+    <t>NC0260000</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP B</t>
+  </si>
+  <si>
+    <t>NCNHP0900</t>
+  </si>
+  <si>
+    <t>NCBCISE00</t>
+  </si>
+  <si>
+    <t>FOREST CITY PD</t>
+  </si>
+  <si>
+    <t>FOREST CITY</t>
+  </si>
+  <si>
+    <t>NC0810100</t>
+  </si>
+  <si>
+    <t>FOUNTAIN PD</t>
+  </si>
+  <si>
+    <t>FOUNTAIN</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>NC0740500</t>
+  </si>
+  <si>
+    <t>FOUR OAKS PD</t>
+  </si>
+  <si>
+    <t>FOUR OAKS</t>
+  </si>
+  <si>
+    <t>NC0510400</t>
+  </si>
+  <si>
+    <t>FRANKLIN PD</t>
+  </si>
+  <si>
+    <t>MACON</t>
+  </si>
+  <si>
+    <t>NC0570100</t>
+  </si>
+  <si>
+    <t>NC0570000</t>
+  </si>
+  <si>
+    <t>FRANKLINTON PD</t>
+  </si>
+  <si>
+    <t>FRANKLINTON</t>
+  </si>
+  <si>
+    <t>NC0350200</t>
+  </si>
+  <si>
+    <t>FRANKLINVILLE PD</t>
+  </si>
+  <si>
+    <t>FRANKLINVILLE</t>
+  </si>
+  <si>
+    <t>NC0760200</t>
+  </si>
+  <si>
+    <t>FREMONT PD</t>
+  </si>
+  <si>
+    <t>FREMONT</t>
+  </si>
+  <si>
+    <t>NC0960300</t>
+  </si>
+  <si>
+    <t>FUQUAY SPRINGS PD</t>
+  </si>
+  <si>
+    <t>FUQUAY-VARINA</t>
+  </si>
+  <si>
+    <t>NC0921000</t>
+  </si>
+  <si>
+    <t>FUQUAY-VARINA PD</t>
+  </si>
+  <si>
+    <t>NC0920400</t>
+  </si>
+  <si>
+    <t>GARLAND PD</t>
+  </si>
+  <si>
+    <t>GARLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAMPSON</t>
+  </si>
+  <si>
+    <t>NC0820200</t>
+  </si>
+  <si>
+    <t>GARNER PD</t>
+  </si>
+  <si>
+    <t>GARNER</t>
+  </si>
+  <si>
+    <t>NC0920500</t>
+  </si>
+  <si>
+    <t>GASTON COUNTY RURAL PD</t>
+  </si>
+  <si>
+    <t>GASTONIA</t>
+  </si>
+  <si>
+    <t>NC0360500</t>
+  </si>
+  <si>
+    <t>GASTON PD</t>
+  </si>
+  <si>
+    <t>NC0660300</t>
+  </si>
+  <si>
+    <t>GASTONIA PD</t>
+  </si>
+  <si>
+    <t>NC0360600</t>
+  </si>
+  <si>
+    <t>*RANLO PD</t>
+  </si>
+  <si>
+    <t>NC0361200</t>
+  </si>
+  <si>
+    <t>NC0360000</t>
+  </si>
+  <si>
+    <t>GIBSON PD</t>
+  </si>
+  <si>
+    <t>GIBSON</t>
+  </si>
+  <si>
+    <t>SCOTLAND</t>
+  </si>
+  <si>
+    <t>NC0830200</t>
+  </si>
+  <si>
+    <t>GIBSONVILLE PD</t>
+  </si>
+  <si>
+    <t>GIBSONVILLE</t>
+  </si>
+  <si>
+    <t>GUILFORD</t>
+  </si>
+  <si>
+    <t>NC0410100</t>
+  </si>
+  <si>
+    <t>GOLDSBORO PD</t>
+  </si>
+  <si>
+    <t>GOLDSBORO</t>
+  </si>
+  <si>
+    <t>NC0960100</t>
+  </si>
+  <si>
+    <t>NC0960000</t>
+  </si>
+  <si>
+    <t>GRAHAM PD</t>
+  </si>
+  <si>
+    <t>GRAHAM</t>
+  </si>
+  <si>
+    <t>NC0010300</t>
+  </si>
+  <si>
+    <t>NC0010000</t>
+  </si>
+  <si>
+    <t>GRANITE FALLS PD</t>
+  </si>
+  <si>
+    <t>GRANITE FALLS</t>
+  </si>
+  <si>
+    <t>CALDWELL</t>
+  </si>
+  <si>
+    <t>NC0140100</t>
+  </si>
+  <si>
+    <t>GRANITE QUARRY PD</t>
+  </si>
+  <si>
+    <t>GRANITE QUARRY</t>
+  </si>
+  <si>
+    <t>NC0800800</t>
+  </si>
+  <si>
+    <t>GREENSBORO PD</t>
+  </si>
+  <si>
+    <t>GREENSBORO</t>
+  </si>
+  <si>
+    <t>NC0410200</t>
+  </si>
+  <si>
+    <t>NC0410000</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP D</t>
+  </si>
+  <si>
+    <t>NCNHP0400</t>
+  </si>
+  <si>
+    <t>STATE BUREAU OF INVESTIGATION</t>
+  </si>
+  <si>
+    <t>NCBCINP00</t>
+  </si>
+  <si>
+    <t>GREENVILLE PD</t>
+  </si>
+  <si>
+    <t>GREENVILLE</t>
+  </si>
+  <si>
+    <t>NC0740300</t>
+  </si>
+  <si>
+    <t>NCBCINE00</t>
+  </si>
+  <si>
+    <t>NC0740000</t>
+  </si>
+  <si>
+    <t>GRIFTON PD</t>
+  </si>
+  <si>
+    <t>GRIFTON</t>
+  </si>
+  <si>
+    <t>NC0740600</t>
+  </si>
+  <si>
+    <t>GRIMESLAND PD</t>
+  </si>
+  <si>
+    <t>GRIMESLAND</t>
+  </si>
+  <si>
+    <t>NC0740700</t>
+  </si>
+  <si>
+    <t>HALIFAX PD</t>
+  </si>
+  <si>
+    <t>NC0420400</t>
+  </si>
+  <si>
+    <t>NC0420000</t>
+  </si>
+  <si>
+    <t>HAMILTON PD</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>NC0590200</t>
+  </si>
+  <si>
+    <t>HAMLET PD</t>
+  </si>
+  <si>
+    <t>HAMLET</t>
+  </si>
+  <si>
+    <t>NC0770200</t>
+  </si>
+  <si>
+    <t>HARMONY PD</t>
+  </si>
+  <si>
+    <t>HARMONY</t>
+  </si>
+  <si>
+    <t>IREDELL</t>
+  </si>
+  <si>
+    <t>NC0490300</t>
+  </si>
+  <si>
+    <t>harrelsville PD</t>
+  </si>
+  <si>
+    <t>HARRELSVILLE</t>
+  </si>
+  <si>
+    <t>NC0460400</t>
+  </si>
+  <si>
+    <t>HASSELL PD</t>
+  </si>
+  <si>
+    <t>HASSELL</t>
+  </si>
+  <si>
+    <t>NC0590300</t>
+  </si>
+  <si>
+    <t>HAVELOCK PD</t>
+  </si>
+  <si>
+    <t>HAVELOCK</t>
+  </si>
+  <si>
+    <t>CRAVEN</t>
+  </si>
+  <si>
+    <t>NC0250100</t>
+  </si>
+  <si>
+    <t>HAYESVILLE PD</t>
+  </si>
+  <si>
+    <t>HAYESVILLE</t>
+  </si>
+  <si>
+    <t>CLAY</t>
+  </si>
+  <si>
+    <t>NC0220100</t>
+  </si>
+  <si>
+    <t>NC0220000</t>
+  </si>
+  <si>
+    <t>HAZELWOOD PD</t>
+  </si>
+  <si>
+    <t>HAZELWOOD</t>
+  </si>
+  <si>
+    <t>NC0440400</t>
+  </si>
+  <si>
+    <t>HENDERSON PD</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>VANCE</t>
+  </si>
+  <si>
+    <t>NC0910100</t>
+  </si>
+  <si>
+    <t>NC0910000</t>
+  </si>
+  <si>
+    <t>HENDERSONVILLE PD</t>
+  </si>
+  <si>
+    <t>HENDERSONVILLE</t>
+  </si>
+  <si>
+    <t>NC0450100</t>
+  </si>
+  <si>
+    <t>*LAUREL PARK PD</t>
+  </si>
+  <si>
+    <t>NC0450200</t>
+  </si>
+  <si>
+    <t>NC0450000</t>
+  </si>
+  <si>
+    <t>HERTFORD PD</t>
+  </si>
+  <si>
+    <t>PERQUIMANS</t>
+  </si>
+  <si>
+    <t>NC0720100</t>
+  </si>
+  <si>
+    <t>‘SHERIFF’S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0720000</t>
+  </si>
+  <si>
+    <t>HICKORY PD</t>
+  </si>
+  <si>
+    <t>NC0180200</t>
+  </si>
+  <si>
+    <t>*BROOKFORD PD</t>
+  </si>
+  <si>
+    <t>NC0180S00</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP F</t>
+  </si>
+  <si>
+    <t>NCNHP0600</t>
+  </si>
+  <si>
+    <t>HIGH POINT PD</t>
+  </si>
+  <si>
+    <t>HIGH POINT</t>
+  </si>
+  <si>
+    <t>NC0410300</t>
+  </si>
+  <si>
+    <t>HIGH SHOALS PD</t>
+  </si>
+  <si>
+    <t>HIGH SHOALS</t>
+  </si>
+  <si>
+    <t>NC0361300</t>
+  </si>
+  <si>
+    <t>HIGHLANDS PD</t>
+  </si>
+  <si>
+    <t>HIGHLANDS</t>
+  </si>
+  <si>
+    <t>NC0570200</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL STATION</t>
+  </si>
+  <si>
+    <t>MONROE</t>
+  </si>
+  <si>
+    <t>NCNHP1100</t>
+  </si>
+  <si>
+    <t>NEW BERN</t>
+  </si>
+  <si>
+    <t>NCNHP0800</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL TROOP A</t>
+  </si>
+  <si>
+    <t>WILLIAMSTON</t>
+  </si>
+  <si>
+    <t>NCNHP0100</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL TROOP B</t>
+  </si>
+  <si>
+    <t>FAYE Neville</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL TROOP C</t>
+  </si>
+  <si>
+    <t>NCNHP0300</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL TROOP D</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL TROOP E</t>
+  </si>
+  <si>
+    <t>SALISBURY</t>
+  </si>
+  <si>
+    <t>NCNHP0500</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATHOL TROOP F</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL TROOP G</t>
+  </si>
+  <si>
+    <t>HIGHWAY PATROL HEADQUARTERS</t>
+  </si>
+  <si>
+    <t>NCNHP0000</t>
+  </si>
+  <si>
+    <t>HILLSBOROUGH PD</t>
+  </si>
+  <si>
+    <t>HILLSBOROUGH</t>
+  </si>
+  <si>
+    <t>NC0680200</t>
+  </si>
+  <si>
+    <t>NC0680000</t>
+  </si>
+  <si>
+    <t>HOBGOOD PD</t>
+  </si>
+  <si>
+    <t>HOBGOOD</t>
+  </si>
+  <si>
+    <t>NC0420500</t>
+  </si>
+  <si>
+    <t>HOLDEN BEACH PD</t>
+  </si>
+  <si>
+    <t>HOLDEN BEACH</t>
+  </si>
+  <si>
+    <t>NC0100400</t>
+  </si>
+  <si>
+    <t>HOLLYRIDGE PD</t>
+  </si>
+  <si>
+    <t>HOLLYRIDGE</t>
+  </si>
+  <si>
+    <t>ONSLOW</t>
+  </si>
+  <si>
+    <t>NC0670200</t>
+  </si>
+  <si>
+    <t>HOOKERTON PD</t>
+  </si>
+  <si>
+    <t>HOOKERTON</t>
+  </si>
+  <si>
+    <t>GREENE</t>
+  </si>
+  <si>
+    <t>NC0400100</t>
+  </si>
+  <si>
+    <t>HOPE MILLS PD</t>
+  </si>
+  <si>
+    <t>HOPE MILLS</t>
+  </si>
+  <si>
+    <t>NC0260200</t>
+  </si>
+  <si>
+    <t>HOT SPRINGS PD</t>
+  </si>
+  <si>
+    <t>HOT SPRINGS</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>NC0580200</t>
+  </si>
+  <si>
+    <t>HUDSON PD</t>
+  </si>
+  <si>
+    <t>HUDSON</t>
+  </si>
+  <si>
+    <t>NC0140400</t>
+  </si>
+  <si>
+    <t>HUNTERSVILLE PD</t>
+  </si>
+  <si>
+    <t>HUNTERSVILLE</t>
+  </si>
+  <si>
+    <t>NC0600600</t>
+  </si>
+  <si>
+    <t>JACKSON PD</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>NC0660400</t>
+  </si>
+  <si>
+    <t>NC0660000</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE PD</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE</t>
+  </si>
+  <si>
+    <t>NC0670100</t>
+  </si>
+  <si>
+    <t>NC0670000</t>
+  </si>
+  <si>
+    <t>JAMESVILLE PD</t>
+  </si>
+  <si>
+    <t>JAMESVILLE</t>
+  </si>
+  <si>
+    <t>NC0590400</t>
+  </si>
+  <si>
+    <t>JEFFERSON PD</t>
+  </si>
+  <si>
+    <t>JEFFERSON</t>
+  </si>
+  <si>
+    <t>ASHE</t>
+  </si>
+  <si>
+    <t>NC0050200</t>
+  </si>
+  <si>
+    <t>NC0050000</t>
+  </si>
+  <si>
+    <t>JONESVILLE PD</t>
+  </si>
+  <si>
+    <t>JONESVILLE</t>
+  </si>
+  <si>
+    <t>NC0990100</t>
+  </si>
+  <si>
+    <t>KANNAPOLIS PD</t>
+  </si>
+  <si>
+    <t>KANNAPOLIS</t>
+  </si>
+  <si>
+    <t>NC0130200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*STATE BUREAU OF INVESTIGATION  SOUTHEASTER </t>
+  </si>
+  <si>
+    <t>NCBCISP00</t>
+  </si>
+  <si>
+    <t>KELFORD  PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELFORD </t>
+  </si>
+  <si>
+    <t>NC0080700</t>
+  </si>
+  <si>
+    <t>KENANSVILLE PD</t>
+  </si>
+  <si>
+    <t>KENANSVILLE</t>
+  </si>
+  <si>
+    <t>NC0310400</t>
+  </si>
+  <si>
+    <t>NC0310000</t>
+  </si>
+  <si>
+    <t>KENLY PD</t>
+  </si>
+  <si>
+    <t>KENLY</t>
+  </si>
+  <si>
+    <t>NC0510500</t>
+  </si>
+  <si>
+    <t>KERNERSVILLE PD</t>
+  </si>
+  <si>
+    <t>KERNERSVILLE</t>
+  </si>
+  <si>
+    <t>FORSYTH</t>
+  </si>
+  <si>
+    <t>NC0340100</t>
+  </si>
+  <si>
+    <t>KILL DEVIL HILLS PD</t>
+  </si>
+  <si>
+    <t>KILL DEVIL HILLS</t>
+  </si>
+  <si>
+    <t>DARE</t>
+  </si>
+  <si>
+    <t>NC0280100</t>
+  </si>
+  <si>
+    <t>KINGS MOUNTAIN PD</t>
+  </si>
+  <si>
+    <t>KINGS MOUNTAIN</t>
+  </si>
+  <si>
+    <t>NC0230100</t>
+  </si>
+  <si>
+    <t>KINSTON PD</t>
+  </si>
+  <si>
+    <t>KINSTON</t>
+  </si>
+  <si>
+    <t>LENOIR</t>
+  </si>
+  <si>
+    <t>NC0540100</t>
+  </si>
+  <si>
+    <t>NC0540000</t>
+  </si>
+  <si>
+    <t>KITTRELL PD</t>
+  </si>
+  <si>
+    <t>KITTRELL</t>
+  </si>
+  <si>
+    <t>NC0910200</t>
+  </si>
+  <si>
+    <t>KNIGHTDALE PD</t>
+  </si>
+  <si>
+    <t>KNIGHTDALE</t>
+  </si>
+  <si>
+    <t>NC0920600</t>
+  </si>
+  <si>
+    <t>KURE BEACH PD</t>
+  </si>
+  <si>
+    <t>KURE BEACH</t>
+  </si>
+  <si>
+    <t>NC0650400</t>
+  </si>
+  <si>
+    <t>LA GRANGE PD</t>
+  </si>
+  <si>
+    <t>LA GRANGE</t>
+  </si>
+  <si>
+    <t>NC0540200</t>
+  </si>
+  <si>
+    <t>LAKE LURE PD</t>
+  </si>
+  <si>
+    <t>LAKE LURE</t>
+  </si>
+  <si>
+    <t>NC0810400</t>
+  </si>
+  <si>
+    <t>LAKE WACCAMAW PD</t>
+  </si>
+  <si>
+    <t>LAKE WACCAMAW</t>
+  </si>
+  <si>
+    <t>NC0240600</t>
+  </si>
+  <si>
+    <t>LANDIS PD</t>
+  </si>
+  <si>
+    <t>LANDIS</t>
+  </si>
+  <si>
+    <t>NC0800300</t>
+  </si>
+  <si>
+    <t>LAUREL PARK PD</t>
+  </si>
+  <si>
+    <t>LAURINBURG</t>
+  </si>
+  <si>
+    <t>NC0830100</t>
+  </si>
+  <si>
+    <t>NC0830000</t>
+  </si>
+  <si>
+    <t>LAWNDALE PD</t>
+  </si>
+  <si>
+    <t>LAWNDALE</t>
+  </si>
+  <si>
+    <t>NC0230400</t>
+  </si>
+  <si>
+    <t>LENOIR PD</t>
+  </si>
+  <si>
+    <t>NC0140200</t>
+  </si>
+  <si>
+    <t>NC0140000</t>
+  </si>
+  <si>
+    <t>LEWISTON PD</t>
+  </si>
+  <si>
+    <t>LEWISTON</t>
+  </si>
+  <si>
+    <t>NC0080300</t>
+  </si>
+  <si>
+    <t>LEXINGTON PD</t>
+  </si>
+  <si>
+    <t>LEXINGTON</t>
+  </si>
+  <si>
+    <t>NC0290100</t>
+  </si>
+  <si>
+    <t>SHERIFFS OFFICE</t>
+  </si>
+  <si>
+    <t>NC0290000</t>
+  </si>
+  <si>
+    <t>LIBERTY PD</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>NC0760300</t>
+  </si>
+  <si>
+    <t>LILESVILLE PD</t>
+  </si>
+  <si>
+    <t>LILESVILLE</t>
+  </si>
+  <si>
+    <t>ANSON</t>
+  </si>
+  <si>
+    <t>NC0040200</t>
+  </si>
+  <si>
+    <t>LILLINGTON PD</t>
+  </si>
+  <si>
+    <t>LILLINGTON</t>
+  </si>
+  <si>
+    <t>NC0430400</t>
+  </si>
+  <si>
+    <t>'SHERIFF'S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0430000</t>
+  </si>
+  <si>
+    <t>LINCOLNTON PD</t>
+  </si>
+  <si>
+    <t>LINCOLNTON</t>
+  </si>
+  <si>
+    <t>LINCOLN</t>
+  </si>
+  <si>
+    <t>NC0550100</t>
+  </si>
+  <si>
+    <t>NC0550000</t>
+  </si>
+  <si>
+    <t>LITTLETON PD</t>
+  </si>
+  <si>
+    <t>LITTLETON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALIFAX </t>
+  </si>
+  <si>
+    <t>NC0420600</t>
+  </si>
+  <si>
+    <t>LOCUST PD</t>
+  </si>
+  <si>
+    <t>LOCUST</t>
+  </si>
+  <si>
+    <t>STANLEY</t>
+  </si>
+  <si>
+    <t>NC0840500</t>
+  </si>
+  <si>
+    <t>LONG BEACH PD</t>
+  </si>
+  <si>
+    <t>LONG BEACH</t>
+  </si>
+  <si>
+    <t>NC0100100</t>
+  </si>
+  <si>
+    <t>LONGVIEW PD</t>
+  </si>
+  <si>
+    <t>LONGVIEW</t>
+  </si>
+  <si>
+    <t>NC0180700</t>
+  </si>
+  <si>
+    <t>LOUISBURG PD</t>
+  </si>
+  <si>
+    <t>NC0350100</t>
+  </si>
+  <si>
+    <t>*CENTERVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0350000</t>
+  </si>
+  <si>
+    <t>LOWELL PD</t>
+  </si>
+  <si>
+    <t>LOWELL</t>
+  </si>
+  <si>
+    <t>NC0360800</t>
+  </si>
+  <si>
+    <t>LUCAMA PD</t>
+  </si>
+  <si>
+    <t>LUCAMA</t>
+  </si>
+  <si>
+    <t>NC0980400</t>
+  </si>
+  <si>
+    <t>LUMBERTON PD</t>
+  </si>
+  <si>
+    <t>LUMBERTON</t>
+  </si>
+  <si>
+    <t>NC0780100</t>
+  </si>
+  <si>
+    <t>NC0780000</t>
+  </si>
+  <si>
+    <t>MACCLESFIELD PD</t>
+  </si>
+  <si>
+    <t>MACCLESFIELD</t>
+  </si>
+  <si>
+    <t>EDGECOMBE</t>
+  </si>
+  <si>
+    <t>NC0330300</t>
+  </si>
+  <si>
+    <t>MADISON PD</t>
+  </si>
+  <si>
+    <t>NC0790300</t>
+  </si>
+  <si>
+    <t>MAGNOLIA PD</t>
+  </si>
+  <si>
+    <t>MAGNOLIA</t>
+  </si>
+  <si>
+    <t>NC0310700</t>
+  </si>
+  <si>
+    <t>MAIDEN PD</t>
+  </si>
+  <si>
+    <t>MAIDEN</t>
+  </si>
+  <si>
+    <t>NC0180300</t>
+  </si>
+  <si>
+    <t>MANTEO PD</t>
+  </si>
+  <si>
+    <t>MANTEO</t>
+  </si>
+  <si>
+    <t>NC0280200</t>
+  </si>
+  <si>
+    <t>NC0280000</t>
+  </si>
+  <si>
+    <t>MARION PD</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>MC DOWELL</t>
+  </si>
+  <si>
+    <t>NC0560100</t>
+  </si>
+  <si>
+    <t>NC0560000</t>
+  </si>
+  <si>
+    <t>MARS HILL PD</t>
+  </si>
+  <si>
+    <t>MARS HILL</t>
+  </si>
+  <si>
+    <t>NC0580300</t>
+  </si>
+  <si>
+    <t>MARSHALL PD</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>NC0580100</t>
+  </si>
+  <si>
+    <t>NC0580000</t>
+  </si>
+  <si>
+    <t>MARSHVILLE PD</t>
+  </si>
+  <si>
+    <t>MARSHVILLE</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>NC0900100</t>
+  </si>
+  <si>
+    <t>MATTHEWS PD</t>
+  </si>
+  <si>
+    <t>MATTHEWS</t>
+  </si>
+  <si>
+    <t>NC0600700</t>
+  </si>
+  <si>
+    <t>MAXTON PD</t>
+  </si>
+  <si>
+    <t>MAXTON</t>
+  </si>
+  <si>
+    <t>NC0780200</t>
+  </si>
+  <si>
+    <t>MAYODAN PD</t>
+  </si>
+  <si>
+    <t>MAYODAN</t>
+  </si>
+  <si>
+    <t>NCÙ790400</t>
+  </si>
+  <si>
+    <t>MCADENVILLE PD</t>
+  </si>
+  <si>
+    <t>MCADENVILLE</t>
+  </si>
+  <si>
+    <t>NC0361000</t>
+  </si>
+  <si>
+    <t>MEBANE PD</t>
+  </si>
+  <si>
+    <t>MEBANE</t>
+  </si>
+  <si>
+    <t>NC0010400</t>
+  </si>
+  <si>
+    <t>MECKLENBURG COUNTY PD</t>
+  </si>
+  <si>
+    <t>MICRO PD</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>NC0510900</t>
+  </si>
+  <si>
+    <t>MIDDLEBURG PD</t>
+  </si>
+  <si>
+    <t>MIDDLEBURG</t>
+  </si>
+  <si>
+    <t>NC0910300</t>
+  </si>
+  <si>
+    <t>MIDDLESEX PD</t>
+  </si>
+  <si>
+    <t>MIDDLESEX</t>
+  </si>
+  <si>
+    <t>NC0640500</t>
+  </si>
+  <si>
+    <t>MOCKSVILLE PD</t>
+  </si>
+  <si>
+    <t>MOCKSVILLE</t>
+  </si>
+  <si>
+    <t>DAVIE</t>
+  </si>
+  <si>
+    <t>NC0300100</t>
+  </si>
+  <si>
+    <t>NC0300000</t>
+  </si>
+  <si>
+    <t>MONROE PD</t>
+  </si>
+  <si>
+    <t>NC0900200</t>
+  </si>
+  <si>
+    <t>NC0900000</t>
+  </si>
+  <si>
+    <t>MONTREAT PD</t>
+  </si>
+  <si>
+    <t>MONTREAT</t>
+  </si>
+  <si>
+    <t>NC0110500</t>
+  </si>
+  <si>
+    <t>MOORESVILLE PD</t>
+  </si>
+  <si>
+    <t>MOORESVILLE</t>
+  </si>
+  <si>
+    <t>NC0490100</t>
+  </si>
+  <si>
+    <t>MOREHEAD CITY PD</t>
+  </si>
+  <si>
+    <t>NC0160200</t>
+  </si>
+  <si>
+    <t>*EMERALD ISLE PD</t>
+  </si>
+  <si>
+    <t>MORGANTON PD</t>
+  </si>
+  <si>
+    <t>MORGANTON</t>
+  </si>
+  <si>
+    <t>NC0120100</t>
+  </si>
+  <si>
+    <t>NC0120000</t>
+  </si>
+  <si>
+    <t>MORRISVILLE PD</t>
+  </si>
+  <si>
+    <t>MORRISVILLE</t>
+  </si>
+  <si>
+    <t>NC0921300</t>
+  </si>
+  <si>
+    <t>MORVEN PD</t>
+  </si>
+  <si>
+    <t>MORVEN</t>
+  </si>
+  <si>
+    <t>NC0040300</t>
+  </si>
+  <si>
+    <t>MOUNT AIRY PD</t>
+  </si>
+  <si>
+    <t>MOUNT AIRY</t>
+  </si>
+  <si>
+    <t>NC0860200</t>
+  </si>
+  <si>
+    <t>NC0860000</t>
+  </si>
+  <si>
+    <t>MOUNT GILEAD PD</t>
+  </si>
+  <si>
+    <t>MOUNT GILEAD</t>
+  </si>
+  <si>
+    <t>NC0620400</t>
+  </si>
+  <si>
+    <t>MOUNT HOLLY PD</t>
+  </si>
+  <si>
+    <t>MOUNT HOLLY</t>
+  </si>
+  <si>
+    <t>NC0360900</t>
+  </si>
+  <si>
+    <t>MOUNT OLIVE PD</t>
+  </si>
+  <si>
+    <t>MOUNT OLIVE</t>
+  </si>
+  <si>
+    <t>NC0960400</t>
+  </si>
+  <si>
+    <t>MOUNT PLEASANT PD</t>
+  </si>
+  <si>
+    <t>MOUNT PLEASANT</t>
+  </si>
+  <si>
+    <t>NC0130300</t>
+  </si>
+  <si>
+    <t>MURFREESBORO PD</t>
+  </si>
+  <si>
+    <t>MURFREESBORO</t>
+  </si>
+  <si>
+    <t>NC0460200</t>
+  </si>
+  <si>
+    <t>MURPHY PD</t>
+  </si>
+  <si>
+    <t>MURPHY</t>
+  </si>
+  <si>
+    <t>NC0200200</t>
+  </si>
+  <si>
+    <t>NC0200000</t>
+  </si>
+  <si>
+    <t>NAGS HEAD PD</t>
+  </si>
+  <si>
+    <t>NAGS HEAD</t>
+  </si>
+  <si>
+    <t>NC0280300</t>
+  </si>
+  <si>
+    <t>NASHVILLE PD</t>
+  </si>
+  <si>
+    <t>NASHVILLE</t>
+  </si>
+  <si>
+    <t>NC0640100</t>
+  </si>
+  <si>
+    <t>NC0640000</t>
+  </si>
+  <si>
+    <t>NEW BERN PD</t>
+  </si>
+  <si>
+    <t>NC0250200</t>
+  </si>
+  <si>
+    <t>NC0250000</t>
+  </si>
+  <si>
+    <t>NEW TOPSAIL PD</t>
+  </si>
+  <si>
+    <t>TOPSAIL BEACH</t>
+  </si>
+  <si>
+    <t>NC0710200</t>
+  </si>
+  <si>
+    <t>NEWLAND PD</t>
+  </si>
+  <si>
+    <t>NEWLAND</t>
+  </si>
+  <si>
+    <t>NC0060I00</t>
+  </si>
+  <si>
+    <t>*SHERIFF’SOFFICE</t>
+  </si>
+  <si>
+    <t>NC0060000</t>
+  </si>
+  <si>
+    <t>NEWPORT PD</t>
+  </si>
+  <si>
+    <t>NEWPORT</t>
+  </si>
+  <si>
+    <t>NC0160400</t>
+  </si>
+  <si>
+    <t>NEWTON GROVE PD</t>
+  </si>
+  <si>
+    <t>NEWTON GROVE</t>
+  </si>
+  <si>
+    <t>NC0820300</t>
+  </si>
+  <si>
+    <t>NEWTON PD</t>
+  </si>
+  <si>
+    <t>NEWTON</t>
+  </si>
+  <si>
+    <t>NC0180400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATAWBA </t>
+  </si>
+  <si>
+    <t>NC0180000</t>
+  </si>
+  <si>
+    <t>NORLINA PD</t>
+  </si>
+  <si>
+    <t>NORLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARREN </t>
+  </si>
+  <si>
+    <t>NC0930100</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA STANDARDS TRAINING COMMISSION</t>
+  </si>
+  <si>
+    <t>NC092M00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORTH CAROLINA STATE OF BOARD </t>
+  </si>
+  <si>
+    <t>NC0925000</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA POLICE INFORMATION</t>
+  </si>
+  <si>
+    <t>NCPIN0000</t>
+  </si>
+  <si>
+    <t>NORTH KANNAPOLIS PD</t>
+  </si>
+  <si>
+    <t>NORTH KANNAPOLIS</t>
+  </si>
+  <si>
+    <t>NC0800400</t>
+  </si>
+  <si>
+    <t>NORTH WILKESBORO PD</t>
+  </si>
+  <si>
+    <t>NORTH WILKESBORO</t>
+  </si>
+  <si>
+    <t>WILKES</t>
+  </si>
+  <si>
+    <t>NC0970100</t>
+  </si>
+  <si>
+    <t>NORWOOD PD</t>
+  </si>
+  <si>
+    <t>NORWOOD</t>
+  </si>
+  <si>
+    <t>NC0840200</t>
+  </si>
+  <si>
+    <t>OAK CITY PD</t>
+  </si>
+  <si>
+    <t>OAK CITY</t>
+  </si>
+  <si>
+    <t>NC0590500</t>
+  </si>
+  <si>
+    <t>OAKBORO PD</t>
+  </si>
+  <si>
+    <t>OAKBORO</t>
+  </si>
+  <si>
+    <t>NC0840300</t>
+  </si>
+  <si>
+    <t>OCEAN ISLE BEACH PD</t>
+  </si>
+  <si>
+    <t>OCEAN ISLE BEACH</t>
+  </si>
+  <si>
+    <t>NC0100800</t>
+  </si>
+  <si>
+    <t>OLD FORT PD</t>
+  </si>
+  <si>
+    <t>OLD FORT</t>
+  </si>
+  <si>
+    <t>NC0560200</t>
+  </si>
+  <si>
+    <t>OXFORD PD</t>
+  </si>
+  <si>
+    <t>OXFORD</t>
+  </si>
+  <si>
+    <t>NC0390100</t>
+  </si>
+  <si>
+    <t>NC0390000</t>
+  </si>
+  <si>
+    <t>PARKTON PD</t>
+  </si>
+  <si>
+    <t>PARKTON</t>
+  </si>
+  <si>
+    <t>NC0780600</t>
+  </si>
+  <si>
+    <t>PEMBROKE PD</t>
+  </si>
+  <si>
+    <t>PEMBROKE</t>
+  </si>
+  <si>
+    <t>NC0789700</t>
+  </si>
+  <si>
+    <t>PIKEVILLE PD</t>
+  </si>
+  <si>
+    <t>PIKEVILLE</t>
+  </si>
+  <si>
+    <t>NC0960500</t>
+  </si>
+  <si>
+    <t>PILOT MOUNTAIN PD</t>
+  </si>
+  <si>
+    <t>PILOT MOUNTAIN</t>
+  </si>
+  <si>
+    <t>NC0860300</t>
+  </si>
+  <si>
+    <t>PINE LEVEL PD</t>
+  </si>
+  <si>
+    <t>PINE LEVEL</t>
+  </si>
+  <si>
+    <t>NC0510600</t>
+  </si>
+  <si>
+    <t>PINEBLUFF PD</t>
+  </si>
+  <si>
+    <t>PINEBLUFF</t>
+  </si>
+  <si>
+    <t>NC0630600</t>
+  </si>
+  <si>
+    <t>PINEHURST PD</t>
+  </si>
+  <si>
+    <t>PINEHURST</t>
+  </si>
+  <si>
+    <t>NC0630200</t>
+  </si>
+  <si>
+    <t>PINEKNOLL SHORES PD</t>
+  </si>
+  <si>
+    <t>PINETOPS PD</t>
+  </si>
+  <si>
+    <t>PINETOPS</t>
+  </si>
+  <si>
+    <t>NC0330400</t>
+  </si>
+  <si>
+    <t>PINEVILLE PD</t>
+  </si>
+  <si>
+    <t>PINEVILLE</t>
+  </si>
+  <si>
+    <t>NC0600300</t>
+  </si>
+  <si>
+    <t>PINK HILL PD</t>
+  </si>
+  <si>
+    <t>PINK HILL</t>
+  </si>
+  <si>
+    <t>NC0540300</t>
+  </si>
+  <si>
+    <t>PITTSBORO PD</t>
+  </si>
+  <si>
+    <t>PITTSBORO</t>
+  </si>
+  <si>
+    <t>CHATHAM</t>
+  </si>
+  <si>
+    <t>NC0190200</t>
+  </si>
+  <si>
+    <t>NC0190000</t>
+  </si>
+  <si>
+    <t>PLYMOUTH PD</t>
+  </si>
+  <si>
+    <t>PLYMOUTH</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>NC0940100</t>
+  </si>
+  <si>
+    <t>NC0940000</t>
+  </si>
+  <si>
+    <t>POLKTON PD</t>
+  </si>
+  <si>
+    <t>POLKTON</t>
+  </si>
+  <si>
+    <t>NC0040400</t>
+  </si>
+  <si>
+    <t>PRINCETON PD</t>
+  </si>
+  <si>
+    <t>PRINCETON</t>
+  </si>
+  <si>
+    <t>NC0510700</t>
+  </si>
+  <si>
+    <t>PRINCEVILLE PD</t>
+  </si>
+  <si>
+    <t>TARBORO</t>
+  </si>
+  <si>
+    <t>NC0330500</t>
+  </si>
+  <si>
+    <t>RAEFORD PD</t>
+  </si>
+  <si>
+    <t>RAEFORD</t>
+  </si>
+  <si>
+    <t>HOKE</t>
+  </si>
+  <si>
+    <t>NC0470100</t>
+  </si>
+  <si>
+    <t>NC0470000</t>
+  </si>
+  <si>
+    <t>RALEIGH PD</t>
+  </si>
+  <si>
+    <t>NC0920100</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP C</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL HEADQUARTERS</t>
+  </si>
+  <si>
+    <t>*NORTH CAROLINA POLICE INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*NORTH CAROLINA STATE OF BOARD </t>
+  </si>
+  <si>
+    <t>NCBCI0000</t>
+  </si>
+  <si>
+    <t>*WILDLIFE PROTECTION DIV</t>
+  </si>
+  <si>
+    <t>NCWLF0W0</t>
+  </si>
+  <si>
+    <t>*NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NC0921400</t>
+  </si>
+  <si>
+    <t>STANDARDS TRAINING COMMISSION SHERIFF’S OFFICE</t>
+  </si>
+  <si>
+    <t>NC0920000</t>
+  </si>
+  <si>
+    <t>*STATE CAPITOL POLICE</t>
+  </si>
+  <si>
+    <t>NC0921200</t>
+  </si>
+  <si>
+    <t>RAMSEUR PD</t>
+  </si>
+  <si>
+    <t>RAMSEUR</t>
+  </si>
+  <si>
+    <t>NC0760400</t>
+  </si>
+  <si>
+    <t>RANDLEMAN PD</t>
+  </si>
+  <si>
+    <t>RANDLEMAN</t>
+  </si>
+  <si>
+    <t>NC0760500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANLO PD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GASTON </t>
+  </si>
+  <si>
+    <t>RED SPRINGS PD</t>
+  </si>
+  <si>
+    <t>RED SPRINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0780300 </t>
+  </si>
+  <si>
+    <t>REIDSVILLE PD</t>
+  </si>
+  <si>
+    <t>REIDSVILLE</t>
+  </si>
+  <si>
+    <t>NC0790500</t>
+  </si>
+  <si>
+    <t>RHODHISS PD</t>
+  </si>
+  <si>
+    <t>RHODHISS</t>
+  </si>
+  <si>
+    <t>NC0140300</t>
+  </si>
+  <si>
+    <t>RICH SQUARE PD</t>
+  </si>
+  <si>
+    <t>RICH SQUARE</t>
+  </si>
+  <si>
+    <t>NC0660100</t>
+  </si>
+  <si>
+    <t>RICHLANDS PD</t>
+  </si>
+  <si>
+    <t>RICHLANDS</t>
+  </si>
+  <si>
+    <t>NC0670300</t>
+  </si>
+  <si>
+    <t>ROANOKE RAPIDS PD</t>
+  </si>
+  <si>
+    <t>ROANOKE RAPIDS</t>
+  </si>
+  <si>
+    <t>NC0420200</t>
+  </si>
+  <si>
+    <t>ROBBINS PD</t>
+  </si>
+  <si>
+    <t>ROBBINS</t>
+  </si>
+  <si>
+    <t>NC0630300</t>
+  </si>
+  <si>
+    <t>ROBBINSVILLE PD</t>
+  </si>
+  <si>
+    <t>ROBBINSVILLE</t>
+  </si>
+  <si>
+    <t>NC0380100</t>
+  </si>
+  <si>
+    <t>NC0380000</t>
+  </si>
+  <si>
+    <t>ROBERSONVILLE PD</t>
+  </si>
+  <si>
+    <t>ROBERSONVILLE</t>
+  </si>
+  <si>
+    <t>NC0590600</t>
+  </si>
+  <si>
+    <t>ROCKINGHAM PD</t>
+  </si>
+  <si>
+    <t>NC0770300</t>
+  </si>
+  <si>
+    <t>NC0770000</t>
+  </si>
+  <si>
+    <t>ROCKWELL PD</t>
+  </si>
+  <si>
+    <t>ROCKWELL</t>
+  </si>
+  <si>
+    <t>NC0800600</t>
+  </si>
+  <si>
+    <t>ROCKY MOUNT PD</t>
+  </si>
+  <si>
+    <t>ROCKY MOUNT</t>
+  </si>
+  <si>
+    <t>NC0330100</t>
+  </si>
+  <si>
+    <t>ROLESVILLE PD</t>
+  </si>
+  <si>
+    <t>ROLESVILLE</t>
+  </si>
+  <si>
+    <t>NC0921100</t>
+  </si>
+  <si>
+    <t>RONDA PD</t>
+  </si>
+  <si>
+    <t>RONDA</t>
+  </si>
+  <si>
+    <t>NC0970300</t>
+  </si>
+  <si>
+    <t>ROPER PD</t>
+  </si>
+  <si>
+    <t>ROPER</t>
+  </si>
+  <si>
+    <t>NC0940200</t>
+  </si>
+  <si>
+    <t>ROSE HILL PD</t>
+  </si>
+  <si>
+    <t>ROSE HILL</t>
+  </si>
+  <si>
+    <t>NC0310500</t>
+  </si>
+  <si>
+    <t>ROSEBORO PD</t>
+  </si>
+  <si>
+    <t>ROSEBORO</t>
+  </si>
+  <si>
+    <t>NC0820400</t>
+  </si>
+  <si>
+    <t>ROWLAND PD</t>
+  </si>
+  <si>
+    <t>ROWLAND</t>
+  </si>
+  <si>
+    <t>NC0780800</t>
+  </si>
+  <si>
+    <t>ROXBORO PD</t>
+  </si>
+  <si>
+    <t>ROXBORO</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>NC0730100</t>
+  </si>
+  <si>
+    <t>NC0730000</t>
+  </si>
+  <si>
+    <t>ROXOBEL PD</t>
+  </si>
+  <si>
+    <t>ROXOBEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0080400 </t>
+  </si>
+  <si>
+    <t>RUTHERFORDTON PD</t>
+  </si>
+  <si>
+    <t>RUTHERFORDTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0810200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0810000 </t>
+  </si>
+  <si>
+    <t>SALEMBURG PD</t>
+  </si>
+  <si>
+    <t>SALEMBURG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0820500 </t>
+  </si>
+  <si>
+    <t>SALISBURY PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0800500 </t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCNHP0500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0800000 </t>
+  </si>
+  <si>
+    <t>SALUNDA PD</t>
+  </si>
+  <si>
+    <t>SALUNDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0750200 </t>
+  </si>
+  <si>
+    <t>SANFORD PD</t>
+  </si>
+  <si>
+    <t>SANFORD</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>NC0530100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0530000 </t>
+  </si>
+  <si>
+    <t>SARATOGA PD</t>
+  </si>
+  <si>
+    <t>SARATOGA</t>
+  </si>
+  <si>
+    <t>NC0980500</t>
+  </si>
+  <si>
+    <t>SCOTLAND NECK PD</t>
+  </si>
+  <si>
+    <t>SCOTLAND NECK</t>
+  </si>
+  <si>
+    <t>NC0420300</t>
+  </si>
+  <si>
+    <t>SEABOARD PD</t>
+  </si>
+  <si>
+    <t>SEABOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0660500 </t>
+  </si>
+  <si>
+    <t>SECURITY POLICE</t>
+  </si>
+  <si>
+    <t>POPE AIR FORCE BASE</t>
+  </si>
+  <si>
+    <t>NCAF00300</t>
+  </si>
+  <si>
+    <t>SELMA PD</t>
+  </si>
+  <si>
+    <t>SELMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0510800 </t>
+  </si>
+  <si>
+    <t>SEVEN SPRINGS PD</t>
+  </si>
+  <si>
+    <t>SEVEN SPRINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0960600 </t>
+  </si>
+  <si>
+    <t>SHALLOTTE PD</t>
+  </si>
+  <si>
+    <t>SHALLOTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0100200 </t>
+  </si>
+  <si>
+    <t>SHARPSBURG PD</t>
+  </si>
+  <si>
+    <t>SHARPSBURG</t>
+  </si>
+  <si>
+    <t>NC0640600</t>
+  </si>
+  <si>
+    <t>SHELBY PD</t>
+  </si>
+  <si>
+    <t>SHELBY</t>
+  </si>
+  <si>
+    <t>NC0230200</t>
+  </si>
+  <si>
+    <t>SHERIFF’S OFFICE</t>
+  </si>
+  <si>
+    <t>SPARTA</t>
+  </si>
+  <si>
+    <t>ALLEGHANY</t>
+  </si>
+  <si>
+    <t>NC0030000</t>
+  </si>
+  <si>
+    <t>TAYLORSVILLE</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>NC0020000</t>
+  </si>
+  <si>
+    <t>WADESBORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0040000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0050000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0070000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0080000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC0090000 </t>
+  </si>
+  <si>
+    <t>SOUTHPORT</t>
+  </si>
+  <si>
+    <t>NC0100000</t>
+  </si>
+  <si>
+    <t>CAMDEN</t>
+  </si>
+  <si>
+    <t>NC0150000</t>
+  </si>
+  <si>
+    <t>YANCEYVILLE</t>
+  </si>
+  <si>
+    <t>CASWELL</t>
+  </si>
+  <si>
+    <t>NC0170000</t>
+  </si>
+  <si>
+    <t>NC0230000</t>
+  </si>
+  <si>
+    <t>NC0240000</t>
+  </si>
+  <si>
+    <t>CURRITUCK</t>
+  </si>
+  <si>
+    <t>NC0270000</t>
+  </si>
+  <si>
+    <t>NC02B0000</t>
+  </si>
+  <si>
+    <t>NC0330000</t>
+  </si>
+  <si>
+    <t>WINSTON-SALEM</t>
+  </si>
+  <si>
+    <t>NC0340000</t>
+  </si>
+  <si>
+    <t>GATESVILLE</t>
+  </si>
+  <si>
+    <t>GATES</t>
+  </si>
+  <si>
+    <t>NC0370000</t>
+  </si>
+  <si>
+    <t>SNOW HILL</t>
+  </si>
+  <si>
+    <t>NC0400000</t>
+  </si>
+  <si>
+    <t>WAYNESVILLE</t>
+  </si>
+  <si>
+    <t>NC0440000</t>
+  </si>
+  <si>
+    <t>NC0460000</t>
+  </si>
+  <si>
+    <t>WINTON</t>
+  </si>
+  <si>
+    <t>SWANQUARTER</t>
+  </si>
+  <si>
+    <t>HYDE</t>
+  </si>
+  <si>
+    <t>NC0480000</t>
+  </si>
+  <si>
+    <t>STATESVILLE</t>
+  </si>
+  <si>
+    <t>NC0490000</t>
+  </si>
+  <si>
+    <t>SYLVA</t>
+  </si>
+  <si>
+    <t>SMITHFIELD</t>
+  </si>
+  <si>
+    <t>NC0510000</t>
+  </si>
+  <si>
+    <t>TRENTON</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>NC0520000</t>
+  </si>
+  <si>
+    <t>NC0530000</t>
+  </si>
+  <si>
+    <t>NC0590000</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>NC0620000</t>
+  </si>
+  <si>
+    <t>WILMINGTON</t>
+  </si>
+  <si>
+    <t>NC0650000</t>
+  </si>
+  <si>
+    <t>NC0710000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROXBORO</t>
+  </si>
+  <si>
+    <t>PIH</t>
+  </si>
+  <si>
+    <t>NC0800000</t>
+  </si>
+  <si>
+    <t>WENTWORTH</t>
+  </si>
+  <si>
+    <t>NC0790000</t>
+  </si>
+  <si>
+    <t>NC0810000</t>
+  </si>
+  <si>
+    <t>SHERIFF'S  OFFICE</t>
+  </si>
+  <si>
+    <t>NG0880000</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>WARRENTON</t>
+  </si>
+  <si>
+    <t>WARREN</t>
+  </si>
+  <si>
+    <t>NC0930000</t>
+  </si>
+  <si>
+    <t>WILKESBORO</t>
+  </si>
+  <si>
+    <t>NC0970000</t>
+  </si>
+  <si>
+    <t>NC0980000</t>
+  </si>
+  <si>
+    <t>YADKINVILLE</t>
+  </si>
+  <si>
+    <t>NC0990000</t>
+  </si>
+  <si>
+    <t>SHERIFF’SOFFICE</t>
+  </si>
+  <si>
+    <t>SILER CITY PD</t>
+  </si>
+  <si>
+    <t>SILER CITY</t>
+  </si>
+  <si>
+    <t>NC0190100</t>
+  </si>
+  <si>
+    <t>SIMS PD</t>
+  </si>
+  <si>
+    <t>SIMS</t>
+  </si>
+  <si>
+    <t>NC0980700</t>
+  </si>
+  <si>
+    <t>SMITHFIELD PD</t>
+  </si>
+  <si>
+    <t>NC0510100</t>
+  </si>
+  <si>
+    <t>SNOW HILL PD</t>
+  </si>
+  <si>
+    <t>NC0400200</t>
+  </si>
+  <si>
+    <t>SOUTHERN PINES PD</t>
+  </si>
+  <si>
+    <t>SOUTHERN PINES</t>
+  </si>
+  <si>
+    <t>NC0630400</t>
+  </si>
+  <si>
+    <t>SOUTHPORT PD</t>
+  </si>
+  <si>
+    <t>NC0100300</t>
+  </si>
+  <si>
+    <t>*YAUPON BEACH PD</t>
+  </si>
+  <si>
+    <t>NC0100600</t>
+  </si>
+  <si>
+    <t>SPARTA PD</t>
+  </si>
+  <si>
+    <t>NC0030100</t>
+  </si>
+  <si>
+    <t>SPENCER PD</t>
+  </si>
+  <si>
+    <t>SPENCER</t>
+  </si>
+  <si>
+    <t>NC0800700</t>
+  </si>
+  <si>
+    <t>SPINDALE PD</t>
+  </si>
+  <si>
+    <t>SPINDALE</t>
+  </si>
+  <si>
+    <t>NC0810300</t>
+  </si>
+  <si>
+    <t>SPRING HOPE PD</t>
+  </si>
+  <si>
+    <t>SPRING HOPE</t>
+  </si>
+  <si>
+    <t>NC0640200</t>
+  </si>
+  <si>
+    <t>SPRING LAKE PD</t>
+  </si>
+  <si>
+    <t>SPRING LAKE</t>
+  </si>
+  <si>
+    <t>NC0260300</t>
+  </si>
+  <si>
+    <t>SPRUCE PINE PD</t>
+  </si>
+  <si>
+    <t>SPRUCE PINE</t>
+  </si>
+  <si>
+    <t>NC0610100</t>
+  </si>
+  <si>
+    <t>ST. PAULS PD</t>
+  </si>
+  <si>
+    <t>ST. PAULS</t>
+  </si>
+  <si>
+    <t>NC0780400</t>
+  </si>
+  <si>
+    <t>STANFIELD PD</t>
+  </si>
+  <si>
+    <t>STANFIELD</t>
+  </si>
+  <si>
+    <t>NC0840400</t>
+  </si>
+  <si>
+    <t>STANLEY PD</t>
+  </si>
+  <si>
+    <t>NC0360700</t>
+  </si>
+  <si>
+    <t>STANTONSBURG PD</t>
+  </si>
+  <si>
+    <t>STANTONSBURG</t>
+  </si>
+  <si>
+    <t>NC0980600</t>
+  </si>
+  <si>
+    <t>STAR PD</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>NC0620500</t>
+  </si>
+  <si>
+    <t>NCBCINPOO</t>
+  </si>
+  <si>
+    <t>NCBCISEOO</t>
+  </si>
+  <si>
+    <t>NCBCINEOO</t>
+  </si>
+  <si>
+    <t>STATE BUREAU OF INVESTIGATION SOUTHEASTER</t>
+  </si>
+  <si>
+    <t>NCBCISPOO</t>
+  </si>
+  <si>
+    <t>STATE CAPITOL POLICE</t>
+  </si>
+  <si>
+    <t>STATESVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0490200</t>
+  </si>
+  <si>
+    <t>STONEVILLE PD</t>
+  </si>
+  <si>
+    <t>STONEVILLE</t>
+  </si>
+  <si>
+    <t>NC0790700</t>
+  </si>
+  <si>
+    <t>STOVALL PD</t>
+  </si>
+  <si>
+    <t>STOVALL</t>
+  </si>
+  <si>
+    <t>NC0390400</t>
+  </si>
+  <si>
+    <t>SUNSET BEACH PD</t>
+  </si>
+  <si>
+    <t>SUNSET BEACH</t>
+  </si>
+  <si>
+    <t>NC0100700</t>
+  </si>
+  <si>
+    <t>SURF CITY PD</t>
+  </si>
+  <si>
+    <t>SURF CITY</t>
+  </si>
+  <si>
+    <t>NC0710300</t>
+  </si>
+  <si>
+    <t>SWANSBORO PD</t>
+  </si>
+  <si>
+    <t>NC0670400</t>
+  </si>
+  <si>
+    <t>*CAPE CARTERET PD</t>
+  </si>
+  <si>
+    <t>SYLVA PD</t>
+  </si>
+  <si>
+    <t>NC0500100</t>
+  </si>
+  <si>
+    <t>NC0500000</t>
+  </si>
+  <si>
+    <t>TABOR CITY PD</t>
+  </si>
+  <si>
+    <t>TABOR CITY</t>
+  </si>
+  <si>
+    <t>NC0240400</t>
+  </si>
+  <si>
+    <t>NC0330200</t>
+  </si>
+  <si>
+    <t>TAYLORSVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0020100</t>
+  </si>
+  <si>
+    <t>THOMASVILLE PD</t>
+  </si>
+  <si>
+    <t>THOMASVILLE</t>
+  </si>
+  <si>
+    <t>NC0290200</t>
+  </si>
+  <si>
+    <t>TROY PD</t>
+  </si>
+  <si>
+    <t>NC0620100</t>
+  </si>
+  <si>
+    <t>TRYON PD</t>
+  </si>
+  <si>
+    <t>TRYON</t>
+  </si>
+  <si>
+    <t>NC0750100</t>
+  </si>
+  <si>
+    <t>VALDESE PD</t>
+  </si>
+  <si>
+    <t>VALDESE</t>
+  </si>
+  <si>
+    <t>NC0120200</t>
+  </si>
+  <si>
+    <t>VANCEBORO PD</t>
+  </si>
+  <si>
+    <t>VANCEBORO</t>
+  </si>
+  <si>
+    <t>NC0250300</t>
+  </si>
+  <si>
+    <t>VASS PD</t>
+  </si>
+  <si>
+    <t>VASS</t>
+  </si>
+  <si>
+    <t>NC0630700</t>
+  </si>
+  <si>
+    <t>WADESBORO PD</t>
+  </si>
+  <si>
+    <t>NC0040100</t>
+  </si>
+  <si>
+    <t>NC0040000</t>
+  </si>
+  <si>
+    <t>WAGRAM PD</t>
+  </si>
+  <si>
+    <t>WAGRAM</t>
+  </si>
+  <si>
+    <t>NC0Ö30300</t>
+  </si>
+  <si>
+    <t>WAKE FOREST PD</t>
+  </si>
+  <si>
+    <t>WAKE FOREST</t>
+  </si>
+  <si>
+    <t>NC0920700</t>
+  </si>
+  <si>
+    <t>WALLACE PD</t>
+  </si>
+  <si>
+    <t>WALLACE</t>
+  </si>
+  <si>
+    <t>NC0310100</t>
+  </si>
+  <si>
+    <t>WALNUT COVE PD</t>
+  </si>
+  <si>
+    <t>WALNUT COVE</t>
+  </si>
+  <si>
+    <t>NC08501Ò0</t>
+  </si>
+  <si>
+    <t>WARRENTON PD</t>
+  </si>
+  <si>
+    <t>NC0930200</t>
+  </si>
+  <si>
+    <t>WARSAW PD</t>
+  </si>
+  <si>
+    <t>WARSAW</t>
+  </si>
+  <si>
+    <t>NC0310600</t>
+  </si>
+  <si>
+    <t>WASHINGTON PD</t>
+  </si>
+  <si>
+    <t>NC007010Q</t>
+  </si>
+  <si>
+    <t>NÜ0070000</t>
+  </si>
+  <si>
+    <t>WAXHAW PD</t>
+  </si>
+  <si>
+    <t>WAXHAW</t>
+  </si>
+  <si>
+    <t>NC0900300</t>
+  </si>
+  <si>
+    <t>WAYNESVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0440200</t>
+  </si>
+  <si>
+    <t>WEAVERVILLE PD</t>
+  </si>
+  <si>
+    <t>WEAVERVILLE</t>
+  </si>
+  <si>
+    <t>NC0110400</t>
+  </si>
+  <si>
+    <t>WELDON PD</t>
+  </si>
+  <si>
+    <t>WELDON</t>
+  </si>
+  <si>
+    <t>NC0420700</t>
+  </si>
+  <si>
+    <t>WENDELL PD</t>
+  </si>
+  <si>
+    <t>WENDELL</t>
+  </si>
+  <si>
+    <t>NC0920800</t>
+  </si>
+  <si>
+    <t>WEST JEFFERSON PD</t>
+  </si>
+  <si>
+    <t>WEST JEFFERSON</t>
+  </si>
+  <si>
+    <t>NC0050100</t>
+  </si>
+  <si>
+    <t>WHISPERING PINES PD</t>
+  </si>
+  <si>
+    <t>WHISPERING PINES</t>
+  </si>
+  <si>
+    <t>NC0630800</t>
+  </si>
+  <si>
+    <t>WHITAKERS PD</t>
+  </si>
+  <si>
+    <t>WHITAKERS</t>
+  </si>
+  <si>
+    <t>NC0640700</t>
+  </si>
+  <si>
+    <t>WHITE LAKE PD</t>
+  </si>
+  <si>
+    <t>WHITE LAKE</t>
+  </si>
+  <si>
+    <t>NC0090400</t>
+  </si>
+  <si>
+    <t>WHITEVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0240500</t>
+  </si>
+  <si>
+    <t>*COLUMBUS COUNTY RURAL PD</t>
+  </si>
+  <si>
+    <t>*COLUMBUS COUNTY BUREAU OF IDENTIFICATION</t>
+  </si>
+  <si>
+    <t>WILDLIFE PROTECTION DIV</t>
+  </si>
+  <si>
+    <t>NCWLF0000</t>
+  </si>
+  <si>
+    <t>WILKESBORO PD</t>
+  </si>
+  <si>
+    <t>NC097020I)</t>
+  </si>
+  <si>
+    <t>WILLIAMSTON PD</t>
+  </si>
+  <si>
+    <t>NC0590100</t>
+  </si>
+  <si>
+    <t>*HIGHWAY PATROL TROOP A</t>
+  </si>
+  <si>
+    <t>WILMINGTON PD</t>
+  </si>
+  <si>
+    <t>NC0650200</t>
+  </si>
+  <si>
+    <t>WILSON PD</t>
+  </si>
+  <si>
+    <t>NC0980100</t>
+  </si>
+  <si>
+    <t>WINDSOR PD</t>
+  </si>
+  <si>
+    <t>NC0080200</t>
+  </si>
+  <si>
+    <t>*ASKEWVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0080000</t>
+  </si>
+  <si>
+    <t>WINGATE PD</t>
+  </si>
+  <si>
+    <t>WINGATE</t>
+  </si>
+  <si>
+    <t>NC0900400</t>
+  </si>
+  <si>
+    <t>WINSTON-SALEM PD</t>
+  </si>
+  <si>
+    <t>NC0340200</t>
+  </si>
+  <si>
+    <t>WINTERVILLE PD</t>
+  </si>
+  <si>
+    <t>WINTERVILLE</t>
+  </si>
+  <si>
+    <t>NC0740800</t>
+  </si>
+  <si>
+    <t>WINTON PD</t>
+  </si>
+  <si>
+    <t>NC0460300</t>
+  </si>
+  <si>
+    <t>WOODFIN PD</t>
+  </si>
+  <si>
+    <t>WOODLAND PD</t>
+  </si>
+  <si>
+    <t>WOODLAND</t>
+  </si>
+  <si>
+    <t>NC0660600</t>
+  </si>
+  <si>
+    <t>WRIGHTSVILLE BEACH PD</t>
+  </si>
+  <si>
+    <t>WRIGHTSVILLE BEACH</t>
+  </si>
+  <si>
+    <t>NC0650300</t>
+  </si>
+  <si>
+    <t>YADKINVILLE PD</t>
+  </si>
+  <si>
+    <t>NC0990200</t>
+  </si>
+  <si>
+    <t>YAUPON BEACH PD</t>
+  </si>
+  <si>
+    <t>YOUNGSVILLE PD</t>
+  </si>
+  <si>
+    <t>YOUNGSVILLE</t>
+  </si>
+  <si>
+    <t>NC0350300</t>
+  </si>
+  <si>
+    <t>ZEBULON PD</t>
+  </si>
+  <si>
+    <t>ZEBULON</t>
+  </si>
+  <si>
+    <t>NC0920900</t>
+  </si>
+  <si>
+    <t>FEDERAL AGENCIES - NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>STATE AND LOCAL AGENCIES</t>
+  </si>
+  <si>
     <t>0RI</t>
-  </si>
-  <si>
-    <t>ABERDEEN PD</t>
-  </si>
-  <si>
-    <t>ABERDEEN</t>
-  </si>
-  <si>
-    <t>MOORE</t>
-  </si>
-  <si>
-    <t>NC0630100</t>
-  </si>
-  <si>
-    <t>AHOSKIE PD</t>
-  </si>
-  <si>
-    <t>AHOSKIE</t>
-  </si>
-  <si>
-    <t>HERTFORD</t>
-  </si>
-  <si>
-    <t>NC0460100</t>
-  </si>
-  <si>
-    <t>ALBEMARLE PD</t>
-  </si>
-  <si>
-    <t>ALBEMARLE</t>
-  </si>
-  <si>
-    <t>STANLY</t>
-  </si>
-  <si>
-    <t>NC0840100</t>
-  </si>
-  <si>
-    <t>*SHERIFF'S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0840000</t>
-  </si>
-  <si>
-    <t>ALEXANDER MILLS PD</t>
-  </si>
-  <si>
-    <t>ALEXANDER MILLS</t>
-  </si>
-  <si>
-    <t>RUTHERFORD</t>
-  </si>
-  <si>
-    <t>NC0810500</t>
-  </si>
-  <si>
-    <t>ANDREWS PD</t>
-  </si>
-  <si>
-    <t>ANDREWS</t>
-  </si>
-  <si>
-    <t>CHEROKEE</t>
-  </si>
-  <si>
-    <t>NC0200100</t>
-  </si>
-  <si>
-    <t>ANGIER PD</t>
-  </si>
-  <si>
-    <t>ANGIER</t>
-  </si>
-  <si>
-    <t>HARNETT</t>
-  </si>
-  <si>
-    <t>NC0430200</t>
-  </si>
-  <si>
-    <t>APEX PD</t>
-  </si>
-  <si>
-    <t>APEX</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>NC0920200</t>
-  </si>
-  <si>
-    <t>APPALACHIAN STATE UNIVERSSECURITY DEPARTMENT</t>
-  </si>
-  <si>
-    <t>BOONE</t>
-  </si>
-  <si>
-    <t>WATAUGA</t>
-  </si>
-  <si>
-    <t>NC0950300</t>
-  </si>
-  <si>
-    <t>ASHEBORO PD</t>
-  </si>
-  <si>
-    <t>ASHEBORO</t>
-  </si>
-  <si>
-    <t>RANDOLPH</t>
-  </si>
-  <si>
-    <t>NC0760100</t>
-  </si>
-  <si>
-    <t>*SHERIFF’S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0760000</t>
-  </si>
-  <si>
-    <t>ASHEVILLE PD</t>
-  </si>
-  <si>
-    <t>ASHEVILLE</t>
-  </si>
-  <si>
-    <t>BUNCOMBE</t>
-  </si>
-  <si>
-    <t>NC0110100</t>
-  </si>
-  <si>
-    <t>NC0110000</t>
-  </si>
-  <si>
-    <t>*WOODFIN PD</t>
-  </si>
-  <si>
-    <t>NC0110600</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP G</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>NCNHP0700</t>
-  </si>
-  <si>
-    <t>*STATE BUREAU OF INVESTIGATION</t>
-  </si>
-  <si>
-    <t>NCBCIW000</t>
-  </si>
-  <si>
-    <t>ASKEWVILLE PD</t>
-  </si>
-  <si>
-    <t>WINDSOR</t>
-  </si>
-  <si>
-    <t>BERTIE</t>
-  </si>
-  <si>
-    <t>NC0080500</t>
-  </si>
-  <si>
-    <t>ATKINSON PD</t>
-  </si>
-  <si>
-    <t>ATKINSON</t>
-  </si>
-  <si>
-    <t>PENDER</t>
-  </si>
-  <si>
-    <t>NC0710400</t>
-  </si>
-  <si>
-    <t>ATLANTIC BEACH PD</t>
-  </si>
-  <si>
-    <t>ATLANTIC BEACH</t>
-  </si>
-  <si>
-    <t>CARTERET</t>
-  </si>
-  <si>
-    <t>NC0160300</t>
-  </si>
-  <si>
-    <t>*PINEKNOLL SHORES PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTERET </t>
-  </si>
-  <si>
-    <t>NC0160700</t>
-  </si>
-  <si>
-    <t>ATTORNEY GENERAL’S OFFICE</t>
-  </si>
-  <si>
-    <t>RALEIGH</t>
-  </si>
-  <si>
-    <t>NCD0J0000</t>
-  </si>
-  <si>
-    <t>AULANDER PD</t>
-  </si>
-  <si>
-    <t>AULANDER</t>
-  </si>
-  <si>
-    <t>NC0080100</t>
-  </si>
-  <si>
-    <t>AURORA PD</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>BEAUFORT</t>
-  </si>
-  <si>
-    <t>NC0070200</t>
-  </si>
-  <si>
-    <t>AUTRYVILLE PD</t>
-  </si>
-  <si>
-    <t>AUTRYVILLE</t>
-  </si>
-  <si>
-    <t>SAMPSON</t>
-  </si>
-  <si>
-    <t>NC0820600</t>
-  </si>
-  <si>
-    <t>AYDEN PD</t>
-  </si>
-  <si>
-    <t>AYDEN</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>NC0740100</t>
-  </si>
-  <si>
-    <t>BAILEY PD</t>
-  </si>
-  <si>
-    <t>BAILEY</t>
-  </si>
-  <si>
-    <t>NASH</t>
-  </si>
-  <si>
-    <t>NC0640300</t>
-  </si>
-  <si>
-    <t>BAKERSVILLE PD</t>
-  </si>
-  <si>
-    <t>BAKERSVILLE</t>
-  </si>
-  <si>
-    <t>MITCHELL</t>
-  </si>
-  <si>
-    <t>NC0610200</t>
-  </si>
-  <si>
-    <t>NC0610000</t>
-  </si>
-  <si>
-    <t>BANNER ELK PD</t>
-  </si>
-  <si>
-    <t>BANNER ELK</t>
-  </si>
-  <si>
-    <t>AVERY</t>
-  </si>
-  <si>
-    <t>NC0060200</t>
-  </si>
-  <si>
-    <t>BATTLEBORO PD</t>
-  </si>
-  <si>
-    <t>BATTLEBORO</t>
-  </si>
-  <si>
-    <t>NC0640400</t>
-  </si>
-  <si>
-    <t>BAYBORO PD</t>
-  </si>
-  <si>
-    <t>BAYBORO</t>
-  </si>
-  <si>
-    <t>PAMLICO</t>
-  </si>
-  <si>
-    <t>NC0690100</t>
-  </si>
-  <si>
-    <t>NC0690000</t>
-  </si>
-  <si>
-    <t>BEAUFORT PD</t>
-  </si>
-  <si>
-    <t>NC0160100</t>
-  </si>
-  <si>
-    <t>NC0160000</t>
-  </si>
-  <si>
-    <t>BELHAVEN PD</t>
-  </si>
-  <si>
-    <t>BELHAVEN</t>
-  </si>
-  <si>
-    <t>NC0070300</t>
-  </si>
-  <si>
-    <t>BELMONT PD</t>
-  </si>
-  <si>
-    <t>BELMONT</t>
-  </si>
-  <si>
-    <t>GASTON</t>
-  </si>
-  <si>
-    <t>NC0360100</t>
-  </si>
-  <si>
-    <t>BENSON PD</t>
-  </si>
-  <si>
-    <t>BENSON</t>
-  </si>
-  <si>
-    <t>JOHNSTON</t>
-  </si>
-  <si>
-    <t>NC0510200</t>
-  </si>
-  <si>
-    <t>BESSEMER CITY PD</t>
-  </si>
-  <si>
-    <t>BESSEMER CITY</t>
-  </si>
-  <si>
-    <t>NC0360200</t>
-  </si>
-  <si>
-    <t>BETHEL PD</t>
-  </si>
-  <si>
-    <t>BETHEL</t>
-  </si>
-  <si>
-    <t>NC0740400</t>
-  </si>
-  <si>
-    <t>BEULAVILLE PD</t>
-  </si>
-  <si>
-    <t>BEULAVILLE</t>
-  </si>
-  <si>
-    <t>DUPLIN</t>
-  </si>
-  <si>
-    <t>NC0310200</t>
-  </si>
-  <si>
-    <t>BILTMORE FOREST PD</t>
-  </si>
-  <si>
-    <t>BILTMORE FOREST</t>
-  </si>
-  <si>
-    <t>NC0110300</t>
-  </si>
-  <si>
-    <t>BISCOE PD</t>
-  </si>
-  <si>
-    <t>BISCOE</t>
-  </si>
-  <si>
-    <t>MONTGOMERY</t>
-  </si>
-  <si>
-    <t>NC0620200</t>
-  </si>
-  <si>
-    <t>BLACK CREEK PD</t>
-  </si>
-  <si>
-    <t>BLACK CREEK</t>
-  </si>
-  <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>NC0980200</t>
-  </si>
-  <si>
-    <t>BLACK MOUNTAIN PD</t>
-  </si>
-  <si>
-    <t>BLACK MOUNTAIN</t>
-  </si>
-  <si>
-    <t>NC0110200</t>
-  </si>
-  <si>
-    <t>BLADENBORO PD</t>
-  </si>
-  <si>
-    <t>BLADENBORO</t>
-  </si>
-  <si>
-    <t>BLADEN</t>
-  </si>
-  <si>
-    <t>NC0090100</t>
-  </si>
-  <si>
-    <t>BLOWING ROCK PD</t>
-  </si>
-  <si>
-    <t>BLOWING ROCK</t>
-  </si>
-  <si>
-    <t>NC0950200</t>
-  </si>
-  <si>
-    <t>BOILING SPRING 'LAKES PD</t>
-  </si>
-  <si>
-    <t>BOILING SPRING</t>
-  </si>
-  <si>
-    <t>BRUNSWICK</t>
-  </si>
-  <si>
-    <t>NC0100500</t>
-  </si>
-  <si>
-    <t>BOILING SPRINGS PD</t>
-  </si>
-  <si>
-    <t>BOILING SPRINGS</t>
-  </si>
-  <si>
-    <t>CLEVELAND</t>
-  </si>
-  <si>
-    <t>NC0230300</t>
-  </si>
-  <si>
-    <t>BOLTON PD</t>
-  </si>
-  <si>
-    <t>BOLTON</t>
-  </si>
-  <si>
-    <t>COLUMBUS</t>
-  </si>
-  <si>
-    <t>NC0240700</t>
-  </si>
-  <si>
-    <t>BOONE PD</t>
-  </si>
-  <si>
-    <t>NC0950100</t>
-  </si>
-  <si>
-    <t>*APPALACHIAN STATE UNIVERSSECURITY DEPARTMENT</t>
-  </si>
-  <si>
-    <t>NC0950000</t>
-  </si>
-  <si>
-    <t>BOONVILLE PD</t>
-  </si>
-  <si>
-    <t>BOONVILLE</t>
-  </si>
-  <si>
-    <t>YADKIN</t>
-  </si>
-  <si>
-    <t>NC0990S00</t>
-  </si>
-  <si>
-    <t>BREVARD PD</t>
-  </si>
-  <si>
-    <t>BREVARD</t>
-  </si>
-  <si>
-    <t>TRANSYLVANIA</t>
-  </si>
-  <si>
-    <t>NC0880100</t>
-  </si>
-  <si>
-    <t>NC0880000</t>
-  </si>
-  <si>
-    <t>BROOKFORD PD</t>
-  </si>
-  <si>
-    <t>HICKORY</t>
-  </si>
-  <si>
-    <t>CATAWBA</t>
-  </si>
-  <si>
-    <t>NC0180500</t>
-  </si>
-  <si>
-    <t>BRYSON CITY PD</t>
-  </si>
-  <si>
-    <t>BRYSON CITY</t>
-  </si>
-  <si>
-    <t>SWAIN</t>
-  </si>
-  <si>
-    <t>NC0070100</t>
-  </si>
-  <si>
-    <t>NC0870000</t>
-  </si>
-  <si>
-    <t>BUNN PD</t>
-  </si>
-  <si>
-    <t>BUNN</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>NC0350400</t>
-  </si>
-  <si>
-    <t>BURGAW PD</t>
-  </si>
-  <si>
-    <t>BURGAW</t>
-  </si>
-  <si>
-    <t>NC0710100</t>
-  </si>
-  <si>
-    <t>NC071P000</t>
-  </si>
-  <si>
-    <t>BURLINGTON PD</t>
-  </si>
-  <si>
-    <t>BURLINGTON</t>
-  </si>
-  <si>
-    <t>ALAMANCE</t>
-  </si>
-  <si>
-    <t>NC0Ó10100</t>
-  </si>
-  <si>
-    <t>BURNSVILLE PD</t>
-  </si>
-  <si>
-    <t>BURNSVILLE</t>
-  </si>
-  <si>
-    <t>YANCEY</t>
-  </si>
-  <si>
-    <t>NCI000100</t>
-  </si>
-  <si>
-    <t>NC1000000</t>
-  </si>
-  <si>
-    <t>BUTNER PD</t>
-  </si>
-  <si>
-    <t>BUTNER</t>
-  </si>
-  <si>
-    <t>GRANVILLE</t>
-  </si>
-  <si>
-    <t>NC0390200</t>
-  </si>
-  <si>
-    <t>CANDOR PD</t>
-  </si>
-  <si>
-    <t>CANDOR</t>
-  </si>
-  <si>
-    <t>NC0620300</t>
-  </si>
-  <si>
-    <t>CANTON PD</t>
-  </si>
-  <si>
-    <t>CANTON</t>
-  </si>
-  <si>
-    <t>HAYWOOD</t>
-  </si>
-  <si>
-    <t>NC0440100</t>
-  </si>
-  <si>
-    <t>CAPE CARTERET PD</t>
-  </si>
-  <si>
-    <t>SWANSBORO</t>
-  </si>
-  <si>
-    <t>NC0160500</t>
-  </si>
-  <si>
-    <t>CAROLINA BEACH PD</t>
-  </si>
-  <si>
-    <t>CAROLINA BEACH</t>
-  </si>
-  <si>
-    <t>NEW HANOVER</t>
-  </si>
-  <si>
-    <t>NC0650100</t>
-  </si>
-  <si>
-    <t>CARRBORO PD</t>
-  </si>
-  <si>
-    <t>CARRBORO</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>NC0680300</t>
-  </si>
-  <si>
-    <t>CARTHAGE PD</t>
-  </si>
-  <si>
-    <t>CARTHAGE</t>
-  </si>
-  <si>
-    <t>NC0630500</t>
-  </si>
-  <si>
-    <t>NC0630000</t>
-  </si>
-  <si>
-    <t>CARY PD</t>
-  </si>
-  <si>
-    <t>CARY</t>
-  </si>
-  <si>
-    <t>NC0920300</t>
-  </si>
-  <si>
-    <t>NCBCIC000</t>
-  </si>
-  <si>
-    <t>CENTERVILLE PD</t>
-  </si>
-  <si>
-    <t>LOUISBURG</t>
-  </si>
-  <si>
-    <t>NC0350500</t>
-  </si>
-  <si>
-    <t>CHADBOURN PD</t>
-  </si>
-  <si>
-    <t>CHADBOURN</t>
-  </si>
-  <si>
-    <t>NC0240200</t>
-  </si>
-  <si>
-    <t>CHAPEL HILL PD</t>
-  </si>
-  <si>
-    <t>CHAPEL HILL</t>
-  </si>
-  <si>
-    <t>NC0680100</t>
-  </si>
-  <si>
-    <t>CHARLOTTE PD</t>
-  </si>
-  <si>
-    <t>CHARLOTTE</t>
-  </si>
-  <si>
-    <t>MECKLENBURG</t>
-  </si>
-  <si>
-    <t>NC0600100</t>
-  </si>
-  <si>
-    <t>*MECKLENBURG COUNTY PD</t>
-  </si>
-  <si>
-    <t>NC0600200</t>
-  </si>
-  <si>
-    <t>NC0600000</t>
-  </si>
-  <si>
-    <t>CHEROKEE PD</t>
-  </si>
-  <si>
-    <t>NC0870200</t>
-  </si>
-  <si>
-    <t>CHERRYVILLE PD</t>
-  </si>
-  <si>
-    <t>CHERRYVILLE</t>
-  </si>
-  <si>
-    <t>NC0360300</t>
-  </si>
-  <si>
-    <t>CHINA GROVE PD</t>
-  </si>
-  <si>
-    <t>CHINA GROVE</t>
-  </si>
-  <si>
-    <t>ROWAN</t>
-  </si>
-  <si>
-    <t>NC0800100</t>
-  </si>
-  <si>
-    <t>CHOCOWINITY PD</t>
-  </si>
-  <si>
-    <t>CHOCOWINITY</t>
-  </si>
-  <si>
-    <t>NC0070400</t>
-  </si>
-  <si>
-    <t>CLAREMONT PD</t>
-  </si>
-  <si>
-    <t>CLAREMONT</t>
-  </si>
-  <si>
-    <t>CATAWBÄ</t>
-  </si>
-  <si>
-    <t>NC0180600</t>
-  </si>
-  <si>
-    <t>CLARKTON PD</t>
-  </si>
-  <si>
-    <t>CLARKTON</t>
-  </si>
-  <si>
-    <t>NC0090200</t>
-  </si>
-  <si>
-    <t>CLAYTON PD</t>
-  </si>
-  <si>
-    <t>CLAYTON</t>
-  </si>
-  <si>
-    <t>NC0510300</t>
-  </si>
-  <si>
-    <t>CLINTON PD</t>
-  </si>
-  <si>
-    <t>CLINTON</t>
-  </si>
-  <si>
-    <t>NC0820100</t>
-  </si>
-  <si>
-    <t>NC0820000</t>
-  </si>
-  <si>
-    <t>CLYDE PD</t>
-  </si>
-  <si>
-    <t>CLYDE</t>
-  </si>
-  <si>
-    <t>NC0440300</t>
-  </si>
-  <si>
-    <t>COATS PD</t>
-  </si>
-  <si>
-    <t>COATS</t>
-  </si>
-  <si>
-    <t>NC0430300</t>
-  </si>
-  <si>
-    <t>COFIELD PD</t>
-  </si>
-  <si>
-    <t>COFIELD</t>
-  </si>
-  <si>
-    <t>NC0460500</t>
-  </si>
-  <si>
-    <t>COLERAIN PD</t>
-  </si>
-  <si>
-    <t>COLERAIN</t>
-  </si>
-  <si>
-    <t>NC0080600</t>
-  </si>
-  <si>
-    <t>COLUMBIA PD</t>
-  </si>
-  <si>
-    <t>COLUMBIA</t>
-  </si>
-  <si>
-    <t>TYRRELL</t>
-  </si>
-  <si>
-    <t>NC0890100</t>
-  </si>
-  <si>
-    <t>NC0890000</t>
-  </si>
-  <si>
-    <t>COLUMBUS COUNTY BUREAU OF IDENTIFICATION</t>
-  </si>
-  <si>
-    <t>WHITEVILLE</t>
-  </si>
-  <si>
-    <t>NC0240100</t>
-  </si>
-  <si>
-    <t>COLUMBUS COUNTY RURAL PD</t>
-  </si>
-  <si>
-    <t>NC0240800</t>
-  </si>
-  <si>
-    <t>COLUMBUS PD</t>
-  </si>
-  <si>
-    <t>POLK</t>
-  </si>
-  <si>
-    <t>NC0750300</t>
-  </si>
-  <si>
-    <t>NC0750000</t>
-  </si>
-  <si>
-    <t>COMO PD</t>
-  </si>
-  <si>
-    <t>COMO</t>
-  </si>
-  <si>
-    <t>NC0460600</t>
-  </si>
-  <si>
-    <t>CONCORD PD</t>
-  </si>
-  <si>
-    <t>CONCORD</t>
-  </si>
-  <si>
-    <t>CABARRUS</t>
-  </si>
-  <si>
-    <t>NC0130100</t>
-  </si>
-  <si>
-    <t>NC0130000</t>
-  </si>
-  <si>
-    <t>CONOVER PD</t>
-  </si>
-  <si>
-    <t>CONOVER</t>
-  </si>
-  <si>
-    <t>NC0180100</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL STATION</t>
-  </si>
-  <si>
-    <t>NCNHP1000</t>
-  </si>
-  <si>
-    <t>CONWAY PD</t>
-  </si>
-  <si>
-    <t>CONWAY</t>
-  </si>
-  <si>
-    <t>NORTHAMPTON</t>
-  </si>
-  <si>
-    <t>NC0660200</t>
-  </si>
-  <si>
-    <t>CORNELIUS PD</t>
-  </si>
-  <si>
-    <t>CORNELIUS</t>
-  </si>
-  <si>
-    <t>NC0600400</t>
-  </si>
-  <si>
-    <t>CRAMERTON PD</t>
-  </si>
-  <si>
-    <t>CRAMERTON</t>
-  </si>
-  <si>
-    <t>NC0361100</t>
-  </si>
-  <si>
-    <t>CREEDMOOR PD</t>
-  </si>
-  <si>
-    <t>CREEDMOOR</t>
-  </si>
-  <si>
-    <t>NC0390300</t>
-  </si>
-  <si>
-    <t>CROSSNORE PD</t>
-  </si>
-  <si>
-    <t>CROSSNORE</t>
-  </si>
-  <si>
-    <t>NC0060300</t>
-  </si>
-  <si>
-    <t>DALLAS PD</t>
-  </si>
-  <si>
-    <t>DALLAS</t>
-  </si>
-  <si>
-    <t>NC0360400</t>
-  </si>
-  <si>
-    <t>DANBURY PD</t>
-  </si>
-  <si>
-    <t>DANBURY</t>
-  </si>
-  <si>
-    <t>STOKES</t>
-  </si>
-  <si>
-    <t>NC0850200</t>
-  </si>
-  <si>
-    <t>SHERIFF'S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0850000</t>
-  </si>
-  <si>
-    <t>DAVIDSON PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVIDSON </t>
-  </si>
-  <si>
-    <t>NC0600500</t>
-  </si>
-  <si>
-    <t>DENTON PD</t>
-  </si>
-  <si>
-    <t>DENTON</t>
-  </si>
-  <si>
-    <t>DAVIDSON</t>
-  </si>
-  <si>
-    <t>NC0290300</t>
-  </si>
-  <si>
-    <t>DEPARTMENT OF MOTOR VEHICLES</t>
-  </si>
-  <si>
-    <t>NCDMV0000</t>
-  </si>
-  <si>
-    <t>DOBSON' PD</t>
-  </si>
-  <si>
-    <t>DOBSON</t>
-  </si>
-  <si>
-    <t>SURRY</t>
-  </si>
-  <si>
-    <t>NC0860400</t>
-  </si>
-  <si>
-    <t>DREXEL PD</t>
-  </si>
-  <si>
-    <t>DREXEL</t>
-  </si>
-  <si>
-    <t>BURKE</t>
-  </si>
-  <si>
-    <t>NC0120300</t>
-  </si>
-  <si>
-    <t>DUBLIN PD</t>
-  </si>
-  <si>
-    <t>DUBLIN</t>
-  </si>
-  <si>
-    <t>NC0090000</t>
-  </si>
-  <si>
-    <t>DUNN PD</t>
-  </si>
-  <si>
-    <t>DUNN</t>
-  </si>
-  <si>
-    <t>NC0430100</t>
-  </si>
-  <si>
-    <t>DURHAM PD</t>
-  </si>
-  <si>
-    <t>DURHAM</t>
-  </si>
-  <si>
-    <t>NC0320100</t>
-  </si>
-  <si>
-    <t>'SHERIFF’S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0320000</t>
-  </si>
-  <si>
-    <t>EAST BEND PD</t>
-  </si>
-  <si>
-    <t>EAST BEND</t>
-  </si>
-  <si>
-    <t>NC0990400</t>
-  </si>
-  <si>
-    <t>EAST SPENCER PD</t>
-  </si>
-  <si>
-    <t>EAST SPENCER</t>
-  </si>
-  <si>
-    <t>NC0800200</t>
-  </si>
-  <si>
-    <t>EDEN PD</t>
-  </si>
-  <si>
-    <t>EDEN</t>
-  </si>
-  <si>
-    <t>ROCKINGHAM</t>
-  </si>
-  <si>
-    <t>NC0790100</t>
-  </si>
-  <si>
-    <t>EDENTON PD</t>
-  </si>
-  <si>
-    <t>EDENTON</t>
-  </si>
-  <si>
-    <t>CHOWAN</t>
-  </si>
-  <si>
-    <t>NC0210100</t>
-  </si>
-  <si>
-    <t>NC0210000</t>
-  </si>
-  <si>
-    <t>ELIZABETH CITY PD</t>
-  </si>
-  <si>
-    <t>ELIZABETH CITY</t>
-  </si>
-  <si>
-    <t>PASQUOTANK</t>
-  </si>
-  <si>
-    <t>NC0700100</t>
-  </si>
-  <si>
-    <t>NC0700000</t>
-  </si>
-  <si>
-    <t>ELIZABETHTOWN PD</t>
-  </si>
-  <si>
-    <t>ELIZABETHTOWN</t>
-  </si>
-  <si>
-    <t>NC0090300</t>
-  </si>
-  <si>
-    <t>NCNHP0200</t>
-  </si>
-  <si>
-    <t>ELK PARK PD</t>
-  </si>
-  <si>
-    <t>ELK PARK</t>
-  </si>
-  <si>
-    <t>NC0060400</t>
-  </si>
-  <si>
-    <t>ELKIN PD</t>
-  </si>
-  <si>
-    <t>ELKIN</t>
-  </si>
-  <si>
-    <t>NC0860100</t>
-  </si>
-  <si>
-    <t>ELLERBE PD</t>
-  </si>
-  <si>
-    <t>ELLERBE</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>NC0770100</t>
-  </si>
-  <si>
-    <t>ELM CITY PD</t>
-  </si>
-  <si>
-    <t>ELM CITY</t>
-  </si>
-  <si>
-    <t>NC0980300</t>
-  </si>
-  <si>
-    <t>ELON COLLEGE PD</t>
-  </si>
-  <si>
-    <t>ELON COLLEGE</t>
-  </si>
-  <si>
-    <t>NC0010200</t>
-  </si>
-  <si>
-    <t>EMERALD ISLE PD</t>
-  </si>
-  <si>
-    <t>MOREHEAD CITY</t>
-  </si>
-  <si>
-    <t>NC0160600</t>
-  </si>
-  <si>
-    <t>ENFIELD PD</t>
-  </si>
-  <si>
-    <t>ENFIELD</t>
-  </si>
-  <si>
-    <t>HALIFAX</t>
-  </si>
-  <si>
-    <t>NC0420100</t>
-  </si>
-  <si>
-    <t>ERWIN PD</t>
-  </si>
-  <si>
-    <t>ERWIN</t>
-  </si>
-  <si>
-    <t>NC0430500</t>
-  </si>
-  <si>
-    <t>EUREKA PD</t>
-  </si>
-  <si>
-    <t>EUREKA</t>
-  </si>
-  <si>
-    <t>WAYNE</t>
-  </si>
-  <si>
-    <t>NC0960200</t>
-  </si>
-  <si>
-    <t>FAIR BLUFF PD</t>
-  </si>
-  <si>
-    <t>FAIR BLUFF</t>
-  </si>
-  <si>
-    <t>.COLUMBUS</t>
-  </si>
-  <si>
-    <t>NC0240300</t>
-  </si>
-  <si>
-    <t>FAIRMONT PD</t>
-  </si>
-  <si>
-    <t>FAIRMONT</t>
-  </si>
-  <si>
-    <t>ROBESON</t>
-  </si>
-  <si>
-    <t>NC0780500</t>
-  </si>
-  <si>
-    <t>FAISON PD</t>
-  </si>
-  <si>
-    <t>FAISON</t>
-  </si>
-  <si>
-    <t>NC0310300</t>
-  </si>
-  <si>
-    <t>FARMVILLE PD</t>
-  </si>
-  <si>
-    <t>FARMVILLE</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>NC0740200</t>
-  </si>
-  <si>
-    <t>FAYETTEVILLE PD</t>
-  </si>
-  <si>
-    <t>FAYETTEVILLE</t>
-  </si>
-  <si>
-    <t>CUMBERLAND</t>
-  </si>
-  <si>
-    <t>NC0260100</t>
-  </si>
-  <si>
-    <t>NC0260000</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP B</t>
-  </si>
-  <si>
-    <t>NCNHP0900</t>
-  </si>
-  <si>
-    <t>NCBCISE00</t>
-  </si>
-  <si>
-    <t>FOREST CITY PD</t>
-  </si>
-  <si>
-    <t>FOREST CITY</t>
-  </si>
-  <si>
-    <t>NC0810100</t>
-  </si>
-  <si>
-    <t>FOUNTAIN PD</t>
-  </si>
-  <si>
-    <t>FOUNTAIN</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>NC0740500</t>
-  </si>
-  <si>
-    <t>FOUR OAKS PD</t>
-  </si>
-  <si>
-    <t>FOUR OAKS</t>
-  </si>
-  <si>
-    <t>NC0510400</t>
-  </si>
-  <si>
-    <t>FRANKLIN PD</t>
-  </si>
-  <si>
-    <t>MACON</t>
-  </si>
-  <si>
-    <t>NC0570100</t>
-  </si>
-  <si>
-    <t>NC0570000</t>
-  </si>
-  <si>
-    <t>FRANKLINTON PD</t>
-  </si>
-  <si>
-    <t>FRANKLINTON</t>
-  </si>
-  <si>
-    <t>NC0350200</t>
-  </si>
-  <si>
-    <t>FRANKLINVILLE PD</t>
-  </si>
-  <si>
-    <t>FRANKLINVILLE</t>
-  </si>
-  <si>
-    <t>NC0760200</t>
-  </si>
-  <si>
-    <t>FREMONT PD</t>
-  </si>
-  <si>
-    <t>FREMONT</t>
-  </si>
-  <si>
-    <t>NC0960300</t>
-  </si>
-  <si>
-    <t>FUQUAY SPRINGS PD</t>
-  </si>
-  <si>
-    <t>FUQUAY-VARINA</t>
-  </si>
-  <si>
-    <t>NC0921000</t>
-  </si>
-  <si>
-    <t>FUQUAY-VARINA PD</t>
-  </si>
-  <si>
-    <t>NC0920400</t>
-  </si>
-  <si>
-    <t>GARLAND PD</t>
-  </si>
-  <si>
-    <t>GARLAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SAMPSON</t>
-  </si>
-  <si>
-    <t>NC0820200</t>
-  </si>
-  <si>
-    <t>GARNER PD</t>
-  </si>
-  <si>
-    <t>GARNER</t>
-  </si>
-  <si>
-    <t>NC0920500</t>
-  </si>
-  <si>
-    <t>GASTON COUNTY RURAL PD</t>
-  </si>
-  <si>
-    <t>GASTONIA</t>
-  </si>
-  <si>
-    <t>NC0360500</t>
-  </si>
-  <si>
-    <t>GASTON PD</t>
-  </si>
-  <si>
-    <t>NC0660300</t>
-  </si>
-  <si>
-    <t>GASTONIA PD</t>
-  </si>
-  <si>
-    <t>NC0360600</t>
-  </si>
-  <si>
-    <t>*RANLO PD</t>
-  </si>
-  <si>
-    <t>NC0361200</t>
-  </si>
-  <si>
-    <t>NC0360000</t>
-  </si>
-  <si>
-    <t>GIBSON PD</t>
-  </si>
-  <si>
-    <t>GIBSON</t>
-  </si>
-  <si>
-    <t>SCOTLAND</t>
-  </si>
-  <si>
-    <t>NC0830200</t>
-  </si>
-  <si>
-    <t>GIBSONVILLE PD</t>
-  </si>
-  <si>
-    <t>GIBSONVILLE</t>
-  </si>
-  <si>
-    <t>GUILFORD</t>
-  </si>
-  <si>
-    <t>NC0410100</t>
-  </si>
-  <si>
-    <t>GOLDSBORO PD</t>
-  </si>
-  <si>
-    <t>GOLDSBORO</t>
-  </si>
-  <si>
-    <t>NC0960100</t>
-  </si>
-  <si>
-    <t>NC0960000</t>
-  </si>
-  <si>
-    <t>GRAHAM PD</t>
-  </si>
-  <si>
-    <t>GRAHAM</t>
-  </si>
-  <si>
-    <t>NC0010300</t>
-  </si>
-  <si>
-    <t>NC0010000</t>
-  </si>
-  <si>
-    <t>GRANITE FALLS PD</t>
-  </si>
-  <si>
-    <t>GRANITE FALLS</t>
-  </si>
-  <si>
-    <t>CALDWELL</t>
-  </si>
-  <si>
-    <t>NC0140100</t>
-  </si>
-  <si>
-    <t>GRANITE QUARRY PD</t>
-  </si>
-  <si>
-    <t>GRANITE QUARRY</t>
-  </si>
-  <si>
-    <t>NC0800800</t>
-  </si>
-  <si>
-    <t>GREENSBORO PD</t>
-  </si>
-  <si>
-    <t>GREENSBORO</t>
-  </si>
-  <si>
-    <t>NC0410200</t>
-  </si>
-  <si>
-    <t>NC0410000</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP D</t>
-  </si>
-  <si>
-    <t>NCNHP0400</t>
-  </si>
-  <si>
-    <t>STATE BUREAU OF INVESTIGATION</t>
-  </si>
-  <si>
-    <t>NCBCINP00</t>
-  </si>
-  <si>
-    <t>GREENVILLE PD</t>
-  </si>
-  <si>
-    <t>GREENVILLE</t>
-  </si>
-  <si>
-    <t>NC0740300</t>
-  </si>
-  <si>
-    <t>NCBCINE00</t>
-  </si>
-  <si>
-    <t>NC0740000</t>
-  </si>
-  <si>
-    <t>GRIFTON PD</t>
-  </si>
-  <si>
-    <t>GRIFTON</t>
-  </si>
-  <si>
-    <t>NC0740600</t>
-  </si>
-  <si>
-    <t>GRIMESLAND PD</t>
-  </si>
-  <si>
-    <t>GRIMESLAND</t>
-  </si>
-  <si>
-    <t>NC0740700</t>
-  </si>
-  <si>
-    <t>HALIFAX PD</t>
-  </si>
-  <si>
-    <t>NC0420400</t>
-  </si>
-  <si>
-    <t>NC0420000</t>
-  </si>
-  <si>
-    <t>HAMILTON PD</t>
-  </si>
-  <si>
-    <t>HAMILTON</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>NC0590200</t>
-  </si>
-  <si>
-    <t>HAMLET PD</t>
-  </si>
-  <si>
-    <t>HAMLET</t>
-  </si>
-  <si>
-    <t>NC0770200</t>
-  </si>
-  <si>
-    <t>HARMONY PD</t>
-  </si>
-  <si>
-    <t>HARMONY</t>
-  </si>
-  <si>
-    <t>IREDELL</t>
-  </si>
-  <si>
-    <t>NC0490300</t>
-  </si>
-  <si>
-    <t>harrelsville PD</t>
-  </si>
-  <si>
-    <t>HARRELSVILLE</t>
-  </si>
-  <si>
-    <t>NC0460400</t>
-  </si>
-  <si>
-    <t>HASSELL PD</t>
-  </si>
-  <si>
-    <t>HASSELL</t>
-  </si>
-  <si>
-    <t>NC0590300</t>
-  </si>
-  <si>
-    <t>HAVELOCK PD</t>
-  </si>
-  <si>
-    <t>HAVELOCK</t>
-  </si>
-  <si>
-    <t>CRAVEN</t>
-  </si>
-  <si>
-    <t>NC0250100</t>
-  </si>
-  <si>
-    <t>HAYESVILLE PD</t>
-  </si>
-  <si>
-    <t>HAYESVILLE</t>
-  </si>
-  <si>
-    <t>CLAY</t>
-  </si>
-  <si>
-    <t>NC0220100</t>
-  </si>
-  <si>
-    <t>NC0220000</t>
-  </si>
-  <si>
-    <t>HAZELWOOD PD</t>
-  </si>
-  <si>
-    <t>HAZELWOOD</t>
-  </si>
-  <si>
-    <t>NC0440400</t>
-  </si>
-  <si>
-    <t>HENDERSON PD</t>
-  </si>
-  <si>
-    <t>HENDERSON</t>
-  </si>
-  <si>
-    <t>VANCE</t>
-  </si>
-  <si>
-    <t>NC0910100</t>
-  </si>
-  <si>
-    <t>NC0910000</t>
-  </si>
-  <si>
-    <t>HENDERSONVILLE PD</t>
-  </si>
-  <si>
-    <t>HENDERSONVILLE</t>
-  </si>
-  <si>
-    <t>NC0450100</t>
-  </si>
-  <si>
-    <t>*LAUREL PARK PD</t>
-  </si>
-  <si>
-    <t>NC0450200</t>
-  </si>
-  <si>
-    <t>NC0450000</t>
-  </si>
-  <si>
-    <t>HERTFORD PD</t>
-  </si>
-  <si>
-    <t>PERQUIMANS</t>
-  </si>
-  <si>
-    <t>NC0720100</t>
-  </si>
-  <si>
-    <t>‘SHERIFF’S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0720000</t>
-  </si>
-  <si>
-    <t>HICKORY PD</t>
-  </si>
-  <si>
-    <t>NC0180200</t>
-  </si>
-  <si>
-    <t>*BROOKFORD PD</t>
-  </si>
-  <si>
-    <t>NC0180S00</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP F</t>
-  </si>
-  <si>
-    <t>NCNHP0600</t>
-  </si>
-  <si>
-    <t>HIGH POINT PD</t>
-  </si>
-  <si>
-    <t>HIGH POINT</t>
-  </si>
-  <si>
-    <t>NC0410300</t>
-  </si>
-  <si>
-    <t>HIGH SHOALS PD</t>
-  </si>
-  <si>
-    <t>HIGH SHOALS</t>
-  </si>
-  <si>
-    <t>NC0361300</t>
-  </si>
-  <si>
-    <t>HIGHLANDS PD</t>
-  </si>
-  <si>
-    <t>HIGHLANDS</t>
-  </si>
-  <si>
-    <t>NC0570200</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL STATION</t>
-  </si>
-  <si>
-    <t>MONROE</t>
-  </si>
-  <si>
-    <t>NCNHP1100</t>
-  </si>
-  <si>
-    <t>NEW BERN</t>
-  </si>
-  <si>
-    <t>NCNHP0800</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL TROOP A</t>
-  </si>
-  <si>
-    <t>WILLIAMSTON</t>
-  </si>
-  <si>
-    <t>NCNHP0100</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL TROOP B</t>
-  </si>
-  <si>
-    <t>FAYE Neville</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL TROOP C</t>
-  </si>
-  <si>
-    <t>NCNHP0300</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL TROOP D</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL TROOP E</t>
-  </si>
-  <si>
-    <t>SALISBURY</t>
-  </si>
-  <si>
-    <t>NCNHP0500</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATHOL TROOP F</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL TROOP G</t>
-  </si>
-  <si>
-    <t>HIGHWAY PATROL HEADQUARTERS</t>
-  </si>
-  <si>
-    <t>NCNHP0000</t>
-  </si>
-  <si>
-    <t>HILLSBOROUGH PD</t>
-  </si>
-  <si>
-    <t>HILLSBOROUGH</t>
-  </si>
-  <si>
-    <t>NC0680200</t>
-  </si>
-  <si>
-    <t>NC0680000</t>
-  </si>
-  <si>
-    <t>HOBGOOD PD</t>
-  </si>
-  <si>
-    <t>HOBGOOD</t>
-  </si>
-  <si>
-    <t>NC0420500</t>
-  </si>
-  <si>
-    <t>HOLDEN BEACH PD</t>
-  </si>
-  <si>
-    <t>HOLDEN BEACH</t>
-  </si>
-  <si>
-    <t>NC0100400</t>
-  </si>
-  <si>
-    <t>HOLLYRIDGE PD</t>
-  </si>
-  <si>
-    <t>HOLLYRIDGE</t>
-  </si>
-  <si>
-    <t>ONSLOW</t>
-  </si>
-  <si>
-    <t>NC0670200</t>
-  </si>
-  <si>
-    <t>HOOKERTON PD</t>
-  </si>
-  <si>
-    <t>HOOKERTON</t>
-  </si>
-  <si>
-    <t>GREENE</t>
-  </si>
-  <si>
-    <t>NC0400100</t>
-  </si>
-  <si>
-    <t>HOPE MILLS PD</t>
-  </si>
-  <si>
-    <t>HOPE MILLS</t>
-  </si>
-  <si>
-    <t>NC0260200</t>
-  </si>
-  <si>
-    <t>HOT SPRINGS PD</t>
-  </si>
-  <si>
-    <t>HOT SPRINGS</t>
-  </si>
-  <si>
-    <t>MADISON</t>
-  </si>
-  <si>
-    <t>NC0580200</t>
-  </si>
-  <si>
-    <t>HUDSON PD</t>
-  </si>
-  <si>
-    <t>HUDSON</t>
-  </si>
-  <si>
-    <t>NC0140400</t>
-  </si>
-  <si>
-    <t>HUNTERSVILLE PD</t>
-  </si>
-  <si>
-    <t>HUNTERSVILLE</t>
-  </si>
-  <si>
-    <t>NC0600600</t>
-  </si>
-  <si>
-    <t>JACKSON PD</t>
-  </si>
-  <si>
-    <t>JACKSON</t>
-  </si>
-  <si>
-    <t>NC0660400</t>
-  </si>
-  <si>
-    <t>NC0660000</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE PD</t>
-  </si>
-  <si>
-    <t>JACKSONVILLE</t>
-  </si>
-  <si>
-    <t>NC0670100</t>
-  </si>
-  <si>
-    <t>NC0670000</t>
-  </si>
-  <si>
-    <t>JAMESVILLE PD</t>
-  </si>
-  <si>
-    <t>JAMESVILLE</t>
-  </si>
-  <si>
-    <t>NC0590400</t>
-  </si>
-  <si>
-    <t>JEFFERSON PD</t>
-  </si>
-  <si>
-    <t>JEFFERSON</t>
-  </si>
-  <si>
-    <t>ASHE</t>
-  </si>
-  <si>
-    <t>NC0050200</t>
-  </si>
-  <si>
-    <t>NC0050000</t>
-  </si>
-  <si>
-    <t>JONESVILLE PD</t>
-  </si>
-  <si>
-    <t>JONESVILLE</t>
-  </si>
-  <si>
-    <t>NC0990100</t>
-  </si>
-  <si>
-    <t>KANNAPOLIS PD</t>
-  </si>
-  <si>
-    <t>KANNAPOLIS</t>
-  </si>
-  <si>
-    <t>NC0130200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*STATE BUREAU OF INVESTIGATION  SOUTHEASTER </t>
-  </si>
-  <si>
-    <t>NCBCISP00</t>
-  </si>
-  <si>
-    <t>KELFORD  PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELFORD </t>
-  </si>
-  <si>
-    <t>NC0080700</t>
-  </si>
-  <si>
-    <t>KENANSVILLE PD</t>
-  </si>
-  <si>
-    <t>KENANSVILLE</t>
-  </si>
-  <si>
-    <t>NC0310400</t>
-  </si>
-  <si>
-    <t>NC0310000</t>
-  </si>
-  <si>
-    <t>KENLY PD</t>
-  </si>
-  <si>
-    <t>KENLY</t>
-  </si>
-  <si>
-    <t>NC0510500</t>
-  </si>
-  <si>
-    <t>KERNERSVILLE PD</t>
-  </si>
-  <si>
-    <t>KERNERSVILLE</t>
-  </si>
-  <si>
-    <t>FORSYTH</t>
-  </si>
-  <si>
-    <t>NC0340100</t>
-  </si>
-  <si>
-    <t>KILL DEVIL HILLS PD</t>
-  </si>
-  <si>
-    <t>KILL DEVIL HILLS</t>
-  </si>
-  <si>
-    <t>DARE</t>
-  </si>
-  <si>
-    <t>NC0280100</t>
-  </si>
-  <si>
-    <t>KINGS MOUNTAIN PD</t>
-  </si>
-  <si>
-    <t>KINGS MOUNTAIN</t>
-  </si>
-  <si>
-    <t>NC0230100</t>
-  </si>
-  <si>
-    <t>KINSTON PD</t>
-  </si>
-  <si>
-    <t>KINSTON</t>
-  </si>
-  <si>
-    <t>LENOIR</t>
-  </si>
-  <si>
-    <t>NC0540100</t>
-  </si>
-  <si>
-    <t>NC0540000</t>
-  </si>
-  <si>
-    <t>KITTRELL PD</t>
-  </si>
-  <si>
-    <t>KITTRELL</t>
-  </si>
-  <si>
-    <t>NC0910200</t>
-  </si>
-  <si>
-    <t>KNIGHTDALE PD</t>
-  </si>
-  <si>
-    <t>KNIGHTDALE</t>
-  </si>
-  <si>
-    <t>NC0920600</t>
-  </si>
-  <si>
-    <t>KURE BEACH PD</t>
-  </si>
-  <si>
-    <t>KURE BEACH</t>
-  </si>
-  <si>
-    <t>NC0650400</t>
-  </si>
-  <si>
-    <t>LA GRANGE PD</t>
-  </si>
-  <si>
-    <t>LA GRANGE</t>
-  </si>
-  <si>
-    <t>NC0540200</t>
-  </si>
-  <si>
-    <t>LAKE LURE PD</t>
-  </si>
-  <si>
-    <t>LAKE LURE</t>
-  </si>
-  <si>
-    <t>NC0810400</t>
-  </si>
-  <si>
-    <t>LAKE WACCAMAW PD</t>
-  </si>
-  <si>
-    <t>LAKE WACCAMAW</t>
-  </si>
-  <si>
-    <t>NC0240600</t>
-  </si>
-  <si>
-    <t>LANDIS PD</t>
-  </si>
-  <si>
-    <t>LANDIS</t>
-  </si>
-  <si>
-    <t>NC0800300</t>
-  </si>
-  <si>
-    <t>LAUREL PARK PD</t>
-  </si>
-  <si>
-    <t>LAURINBURG</t>
-  </si>
-  <si>
-    <t>NC0830100</t>
-  </si>
-  <si>
-    <t>NC0830000</t>
-  </si>
-  <si>
-    <t>LAWNDALE PD</t>
-  </si>
-  <si>
-    <t>LAWNDALE</t>
-  </si>
-  <si>
-    <t>NC0230400</t>
-  </si>
-  <si>
-    <t>LENOIR PD</t>
-  </si>
-  <si>
-    <t>NC0140200</t>
-  </si>
-  <si>
-    <t>NC0140000</t>
-  </si>
-  <si>
-    <t>LEWISTON PD</t>
-  </si>
-  <si>
-    <t>LEWISTON</t>
-  </si>
-  <si>
-    <t>NC0080300</t>
-  </si>
-  <si>
-    <t>LEXINGTON PD</t>
-  </si>
-  <si>
-    <t>LEXINGTON</t>
-  </si>
-  <si>
-    <t>NC0290100</t>
-  </si>
-  <si>
-    <t>SHERIFFS OFFICE</t>
-  </si>
-  <si>
-    <t>NC0290000</t>
-  </si>
-  <si>
-    <t>LIBERTY PD</t>
-  </si>
-  <si>
-    <t>LIBERTY</t>
-  </si>
-  <si>
-    <t>NC0760300</t>
-  </si>
-  <si>
-    <t>LILESVILLE PD</t>
-  </si>
-  <si>
-    <t>LILESVILLE</t>
-  </si>
-  <si>
-    <t>ANSON</t>
-  </si>
-  <si>
-    <t>NC0040200</t>
-  </si>
-  <si>
-    <t>LILLINGTON PD</t>
-  </si>
-  <si>
-    <t>LILLINGTON</t>
-  </si>
-  <si>
-    <t>NC0430400</t>
-  </si>
-  <si>
-    <t>'SHERIFF'S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0430000</t>
-  </si>
-  <si>
-    <t>LINCOLNTON PD</t>
-  </si>
-  <si>
-    <t>LINCOLNTON</t>
-  </si>
-  <si>
-    <t>LINCOLN</t>
-  </si>
-  <si>
-    <t>NC0550100</t>
-  </si>
-  <si>
-    <t>NC0550000</t>
-  </si>
-  <si>
-    <t>LITTLETON PD</t>
-  </si>
-  <si>
-    <t>LITTLETON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HALIFAX </t>
-  </si>
-  <si>
-    <t>NC0420600</t>
-  </si>
-  <si>
-    <t>LOCUST PD</t>
-  </si>
-  <si>
-    <t>LOCUST</t>
-  </si>
-  <si>
-    <t>STANLEY</t>
-  </si>
-  <si>
-    <t>NC0840500</t>
-  </si>
-  <si>
-    <t>LONG BEACH PD</t>
-  </si>
-  <si>
-    <t>LONG BEACH</t>
-  </si>
-  <si>
-    <t>NC0100100</t>
-  </si>
-  <si>
-    <t>LONGVIEW PD</t>
-  </si>
-  <si>
-    <t>LONGVIEW</t>
-  </si>
-  <si>
-    <t>NC0180700</t>
-  </si>
-  <si>
-    <t>LOUISBURG PD</t>
-  </si>
-  <si>
-    <t>NC0350100</t>
-  </si>
-  <si>
-    <t>*CENTERVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0350000</t>
-  </si>
-  <si>
-    <t>LOWELL PD</t>
-  </si>
-  <si>
-    <t>LOWELL</t>
-  </si>
-  <si>
-    <t>NC0360800</t>
-  </si>
-  <si>
-    <t>LUCAMA PD</t>
-  </si>
-  <si>
-    <t>LUCAMA</t>
-  </si>
-  <si>
-    <t>NC0980400</t>
-  </si>
-  <si>
-    <t>LUMBERTON PD</t>
-  </si>
-  <si>
-    <t>LUMBERTON</t>
-  </si>
-  <si>
-    <t>NC0780100</t>
-  </si>
-  <si>
-    <t>NC0780000</t>
-  </si>
-  <si>
-    <t>MACCLESFIELD PD</t>
-  </si>
-  <si>
-    <t>MACCLESFIELD</t>
-  </si>
-  <si>
-    <t>EDGECOMBE</t>
-  </si>
-  <si>
-    <t>NC0330300</t>
-  </si>
-  <si>
-    <t>MADISON PD</t>
-  </si>
-  <si>
-    <t>NC0790300</t>
-  </si>
-  <si>
-    <t>MAGNOLIA PD</t>
-  </si>
-  <si>
-    <t>MAGNOLIA</t>
-  </si>
-  <si>
-    <t>NC0310700</t>
-  </si>
-  <si>
-    <t>MAIDEN PD</t>
-  </si>
-  <si>
-    <t>MAIDEN</t>
-  </si>
-  <si>
-    <t>NC0180300</t>
-  </si>
-  <si>
-    <t>MANTEO PD</t>
-  </si>
-  <si>
-    <t>MANTEO</t>
-  </si>
-  <si>
-    <t>NC0280200</t>
-  </si>
-  <si>
-    <t>NC0280000</t>
-  </si>
-  <si>
-    <t>MARION PD</t>
-  </si>
-  <si>
-    <t>MARION</t>
-  </si>
-  <si>
-    <t>MC DOWELL</t>
-  </si>
-  <si>
-    <t>NC0560100</t>
-  </si>
-  <si>
-    <t>NC0560000</t>
-  </si>
-  <si>
-    <t>MARS HILL PD</t>
-  </si>
-  <si>
-    <t>MARS HILL</t>
-  </si>
-  <si>
-    <t>NC0580300</t>
-  </si>
-  <si>
-    <t>MARSHALL PD</t>
-  </si>
-  <si>
-    <t>MARSHALL</t>
-  </si>
-  <si>
-    <t>NC0580100</t>
-  </si>
-  <si>
-    <t>NC0580000</t>
-  </si>
-  <si>
-    <t>MARSHVILLE PD</t>
-  </si>
-  <si>
-    <t>MARSHVILLE</t>
-  </si>
-  <si>
-    <t>UNION</t>
-  </si>
-  <si>
-    <t>NC0900100</t>
-  </si>
-  <si>
-    <t>MATTHEWS PD</t>
-  </si>
-  <si>
-    <t>MATTHEWS</t>
-  </si>
-  <si>
-    <t>NC0600700</t>
-  </si>
-  <si>
-    <t>MAXTON PD</t>
-  </si>
-  <si>
-    <t>MAXTON</t>
-  </si>
-  <si>
-    <t>NC0780200</t>
-  </si>
-  <si>
-    <t>MAYODAN PD</t>
-  </si>
-  <si>
-    <t>MAYODAN</t>
-  </si>
-  <si>
-    <t>NCÙ790400</t>
-  </si>
-  <si>
-    <t>MCADENVILLE PD</t>
-  </si>
-  <si>
-    <t>MCADENVILLE</t>
-  </si>
-  <si>
-    <t>NC0361000</t>
-  </si>
-  <si>
-    <t>MEBANE PD</t>
-  </si>
-  <si>
-    <t>MEBANE</t>
-  </si>
-  <si>
-    <t>NC0010400</t>
-  </si>
-  <si>
-    <t>MECKLENBURG COUNTY PD</t>
-  </si>
-  <si>
-    <t>MICRO PD</t>
-  </si>
-  <si>
-    <t>MICRO</t>
-  </si>
-  <si>
-    <t>NC0510900</t>
-  </si>
-  <si>
-    <t>MIDDLEBURG PD</t>
-  </si>
-  <si>
-    <t>MIDDLEBURG</t>
-  </si>
-  <si>
-    <t>NC0910300</t>
-  </si>
-  <si>
-    <t>MIDDLESEX PD</t>
-  </si>
-  <si>
-    <t>MIDDLESEX</t>
-  </si>
-  <si>
-    <t>NC0640500</t>
-  </si>
-  <si>
-    <t>MOCKSVILLE PD</t>
-  </si>
-  <si>
-    <t>MOCKSVILLE</t>
-  </si>
-  <si>
-    <t>DAVIE</t>
-  </si>
-  <si>
-    <t>NC0300100</t>
-  </si>
-  <si>
-    <t>NC0300000</t>
-  </si>
-  <si>
-    <t>MONROE PD</t>
-  </si>
-  <si>
-    <t>NC0900200</t>
-  </si>
-  <si>
-    <t>NC0900000</t>
-  </si>
-  <si>
-    <t>MONTREAT PD</t>
-  </si>
-  <si>
-    <t>MONTREAT</t>
-  </si>
-  <si>
-    <t>NC0110500</t>
-  </si>
-  <si>
-    <t>MOORESVILLE PD</t>
-  </si>
-  <si>
-    <t>MOORESVILLE</t>
-  </si>
-  <si>
-    <t>NC0490100</t>
-  </si>
-  <si>
-    <t>MOREHEAD CITY PD</t>
-  </si>
-  <si>
-    <t>NC0160200</t>
-  </si>
-  <si>
-    <t>*EMERALD ISLE PD</t>
-  </si>
-  <si>
-    <t>MORGANTON PD</t>
-  </si>
-  <si>
-    <t>MORGANTON</t>
-  </si>
-  <si>
-    <t>NC0120100</t>
-  </si>
-  <si>
-    <t>NC0120000</t>
-  </si>
-  <si>
-    <t>MORRISVILLE PD</t>
-  </si>
-  <si>
-    <t>MORRISVILLE</t>
-  </si>
-  <si>
-    <t>NC0921300</t>
-  </si>
-  <si>
-    <t>MORVEN PD</t>
-  </si>
-  <si>
-    <t>MORVEN</t>
-  </si>
-  <si>
-    <t>NC0040300</t>
-  </si>
-  <si>
-    <t>MOUNT AIRY PD</t>
-  </si>
-  <si>
-    <t>MOUNT AIRY</t>
-  </si>
-  <si>
-    <t>NC0860200</t>
-  </si>
-  <si>
-    <t>NC0860000</t>
-  </si>
-  <si>
-    <t>MOUNT GILEAD PD</t>
-  </si>
-  <si>
-    <t>MOUNT GILEAD</t>
-  </si>
-  <si>
-    <t>NC0620400</t>
-  </si>
-  <si>
-    <t>MOUNT HOLLY PD</t>
-  </si>
-  <si>
-    <t>MOUNT HOLLY</t>
-  </si>
-  <si>
-    <t>NC0360900</t>
-  </si>
-  <si>
-    <t>MOUNT OLIVE PD</t>
-  </si>
-  <si>
-    <t>MOUNT OLIVE</t>
-  </si>
-  <si>
-    <t>NC0960400</t>
-  </si>
-  <si>
-    <t>MOUNT PLEASANT PD</t>
-  </si>
-  <si>
-    <t>MOUNT PLEASANT</t>
-  </si>
-  <si>
-    <t>NC0130300</t>
-  </si>
-  <si>
-    <t>MURFREESBORO PD</t>
-  </si>
-  <si>
-    <t>MURFREESBORO</t>
-  </si>
-  <si>
-    <t>NC0460200</t>
-  </si>
-  <si>
-    <t>MURPHY PD</t>
-  </si>
-  <si>
-    <t>MURPHY</t>
-  </si>
-  <si>
-    <t>NC0200200</t>
-  </si>
-  <si>
-    <t>NC0200000</t>
-  </si>
-  <si>
-    <t>NAGS HEAD PD</t>
-  </si>
-  <si>
-    <t>NAGS HEAD</t>
-  </si>
-  <si>
-    <t>NC0280300</t>
-  </si>
-  <si>
-    <t>NASHVILLE PD</t>
-  </si>
-  <si>
-    <t>NASHVILLE</t>
-  </si>
-  <si>
-    <t>NC0640100</t>
-  </si>
-  <si>
-    <t>NC0640000</t>
-  </si>
-  <si>
-    <t>NEW BERN PD</t>
-  </si>
-  <si>
-    <t>NC0250200</t>
-  </si>
-  <si>
-    <t>NC0250000</t>
-  </si>
-  <si>
-    <t>NEW TOPSAIL PD</t>
-  </si>
-  <si>
-    <t>TOPSAIL BEACH</t>
-  </si>
-  <si>
-    <t>NC0710200</t>
-  </si>
-  <si>
-    <t>NEWLAND PD</t>
-  </si>
-  <si>
-    <t>NEWLAND</t>
-  </si>
-  <si>
-    <t>NC0060I00</t>
-  </si>
-  <si>
-    <t>*SHERIFF’SOFFICE</t>
-  </si>
-  <si>
-    <t>NC0060000</t>
-  </si>
-  <si>
-    <t>NEWPORT PD</t>
-  </si>
-  <si>
-    <t>NEWPORT</t>
-  </si>
-  <si>
-    <t>NC0160400</t>
-  </si>
-  <si>
-    <t>NEWTON GROVE PD</t>
-  </si>
-  <si>
-    <t>NEWTON GROVE</t>
-  </si>
-  <si>
-    <t>NC0820300</t>
-  </si>
-  <si>
-    <t>NEWTON PD</t>
-  </si>
-  <si>
-    <t>NEWTON</t>
-  </si>
-  <si>
-    <t>NC0180400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATAWBA </t>
-  </si>
-  <si>
-    <t>NC0180000</t>
-  </si>
-  <si>
-    <t>NORLINA PD</t>
-  </si>
-  <si>
-    <t>NORLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WARREN </t>
-  </si>
-  <si>
-    <t>NC0930100</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA STANDARDS TRAINING COMMISSION</t>
-  </si>
-  <si>
-    <t>NC092M00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORTH CAROLINA STATE OF BOARD </t>
-  </si>
-  <si>
-    <t>NC0925000</t>
-  </si>
-  <si>
-    <t>NORTH CAROLINA POLICE INFORMATION</t>
-  </si>
-  <si>
-    <t>NCPIN0000</t>
-  </si>
-  <si>
-    <t>NORTH KANNAPOLIS PD</t>
-  </si>
-  <si>
-    <t>NORTH KANNAPOLIS</t>
-  </si>
-  <si>
-    <t>NC0800400</t>
-  </si>
-  <si>
-    <t>NORTH WILKESBORO PD</t>
-  </si>
-  <si>
-    <t>NORTH WILKESBORO</t>
-  </si>
-  <si>
-    <t>WILKES</t>
-  </si>
-  <si>
-    <t>NC0970100</t>
-  </si>
-  <si>
-    <t>NORWOOD PD</t>
-  </si>
-  <si>
-    <t>NORWOOD</t>
-  </si>
-  <si>
-    <t>NC0840200</t>
-  </si>
-  <si>
-    <t>OAK CITY PD</t>
-  </si>
-  <si>
-    <t>OAK CITY</t>
-  </si>
-  <si>
-    <t>NC0590500</t>
-  </si>
-  <si>
-    <t>OAKBORO PD</t>
-  </si>
-  <si>
-    <t>OAKBORO</t>
-  </si>
-  <si>
-    <t>NC0840300</t>
-  </si>
-  <si>
-    <t>OCEAN ISLE BEACH PD</t>
-  </si>
-  <si>
-    <t>OCEAN ISLE BEACH</t>
-  </si>
-  <si>
-    <t>NC0100800</t>
-  </si>
-  <si>
-    <t>OLD FORT PD</t>
-  </si>
-  <si>
-    <t>OLD FORT</t>
-  </si>
-  <si>
-    <t>NC0560200</t>
-  </si>
-  <si>
-    <t>OXFORD PD</t>
-  </si>
-  <si>
-    <t>OXFORD</t>
-  </si>
-  <si>
-    <t>NC0390100</t>
-  </si>
-  <si>
-    <t>NC0390000</t>
-  </si>
-  <si>
-    <t>PARKTON PD</t>
-  </si>
-  <si>
-    <t>PARKTON</t>
-  </si>
-  <si>
-    <t>NC0780600</t>
-  </si>
-  <si>
-    <t>PEMBROKE PD</t>
-  </si>
-  <si>
-    <t>PEMBROKE</t>
-  </si>
-  <si>
-    <t>NC0789700</t>
-  </si>
-  <si>
-    <t>PIKEVILLE PD</t>
-  </si>
-  <si>
-    <t>PIKEVILLE</t>
-  </si>
-  <si>
-    <t>NC0960500</t>
-  </si>
-  <si>
-    <t>PILOT MOUNTAIN PD</t>
-  </si>
-  <si>
-    <t>PILOT MOUNTAIN</t>
-  </si>
-  <si>
-    <t>NC0860300</t>
-  </si>
-  <si>
-    <t>PINE LEVEL PD</t>
-  </si>
-  <si>
-    <t>PINE LEVEL</t>
-  </si>
-  <si>
-    <t>NC0510600</t>
-  </si>
-  <si>
-    <t>PINEBLUFF PD</t>
-  </si>
-  <si>
-    <t>PINEBLUFF</t>
-  </si>
-  <si>
-    <t>NC0630600</t>
-  </si>
-  <si>
-    <t>PINEHURST PD</t>
-  </si>
-  <si>
-    <t>PINEHURST</t>
-  </si>
-  <si>
-    <t>NC0630200</t>
-  </si>
-  <si>
-    <t>PINEKNOLL SHORES PD</t>
-  </si>
-  <si>
-    <t>PINETOPS PD</t>
-  </si>
-  <si>
-    <t>PINETOPS</t>
-  </si>
-  <si>
-    <t>NC0330400</t>
-  </si>
-  <si>
-    <t>PINEVILLE PD</t>
-  </si>
-  <si>
-    <t>PINEVILLE</t>
-  </si>
-  <si>
-    <t>NC0600300</t>
-  </si>
-  <si>
-    <t>PINK HILL PD</t>
-  </si>
-  <si>
-    <t>PINK HILL</t>
-  </si>
-  <si>
-    <t>NC0540300</t>
-  </si>
-  <si>
-    <t>PITTSBORO PD</t>
-  </si>
-  <si>
-    <t>PITTSBORO</t>
-  </si>
-  <si>
-    <t>CHATHAM</t>
-  </si>
-  <si>
-    <t>NC0190200</t>
-  </si>
-  <si>
-    <t>NC0190000</t>
-  </si>
-  <si>
-    <t>PLYMOUTH PD</t>
-  </si>
-  <si>
-    <t>PLYMOUTH</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>NC0940100</t>
-  </si>
-  <si>
-    <t>NC0940000</t>
-  </si>
-  <si>
-    <t>POLKTON PD</t>
-  </si>
-  <si>
-    <t>POLKTON</t>
-  </si>
-  <si>
-    <t>NC0040400</t>
-  </si>
-  <si>
-    <t>PRINCETON PD</t>
-  </si>
-  <si>
-    <t>PRINCETON</t>
-  </si>
-  <si>
-    <t>NC0510700</t>
-  </si>
-  <si>
-    <t>PRINCEVILLE PD</t>
-  </si>
-  <si>
-    <t>TARBORO</t>
-  </si>
-  <si>
-    <t>NC0330500</t>
-  </si>
-  <si>
-    <t>RAEFORD PD</t>
-  </si>
-  <si>
-    <t>RAEFORD</t>
-  </si>
-  <si>
-    <t>HOKE</t>
-  </si>
-  <si>
-    <t>NC0470100</t>
-  </si>
-  <si>
-    <t>NC0470000</t>
-  </si>
-  <si>
-    <t>RALEIGH PD</t>
-  </si>
-  <si>
-    <t>NC0920100</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP C</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL HEADQUARTERS</t>
-  </si>
-  <si>
-    <t>*NORTH CAROLINA POLICE INFORMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*NORTH CAROLINA STATE OF BOARD </t>
-  </si>
-  <si>
-    <t>NCBCI0000</t>
-  </si>
-  <si>
-    <t>*WILDLIFE PROTECTION DIV</t>
-  </si>
-  <si>
-    <t>NCWLF0W0</t>
-  </si>
-  <si>
-    <t>*NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>NC0921400</t>
-  </si>
-  <si>
-    <t>STANDARDS TRAINING COMMISSION SHERIFF’S OFFICE</t>
-  </si>
-  <si>
-    <t>NC0920000</t>
-  </si>
-  <si>
-    <t>*STATE CAPITOL POLICE</t>
-  </si>
-  <si>
-    <t>NC0921200</t>
-  </si>
-  <si>
-    <t>RAMSEUR PD</t>
-  </si>
-  <si>
-    <t>RAMSEUR</t>
-  </si>
-  <si>
-    <t>NC0760400</t>
-  </si>
-  <si>
-    <t>RANDLEMAN PD</t>
-  </si>
-  <si>
-    <t>RANDLEMAN</t>
-  </si>
-  <si>
-    <t>NC0760500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANLO PD </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GASTON </t>
-  </si>
-  <si>
-    <t>RED SPRINGS PD</t>
-  </si>
-  <si>
-    <t>RED SPRINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0780300 </t>
-  </si>
-  <si>
-    <t>REIDSVILLE PD</t>
-  </si>
-  <si>
-    <t>REIDSVILLE</t>
-  </si>
-  <si>
-    <t>NC0790500</t>
-  </si>
-  <si>
-    <t>RHODHISS PD</t>
-  </si>
-  <si>
-    <t>RHODHISS</t>
-  </si>
-  <si>
-    <t>NC0140300</t>
-  </si>
-  <si>
-    <t>RICH SQUARE PD</t>
-  </si>
-  <si>
-    <t>RICH SQUARE</t>
-  </si>
-  <si>
-    <t>NC0660100</t>
-  </si>
-  <si>
-    <t>RICHLANDS PD</t>
-  </si>
-  <si>
-    <t>RICHLANDS</t>
-  </si>
-  <si>
-    <t>NC0670300</t>
-  </si>
-  <si>
-    <t>ROANOKE RAPIDS PD</t>
-  </si>
-  <si>
-    <t>ROANOKE RAPIDS</t>
-  </si>
-  <si>
-    <t>NC0420200</t>
-  </si>
-  <si>
-    <t>ROBBINS PD</t>
-  </si>
-  <si>
-    <t>ROBBINS</t>
-  </si>
-  <si>
-    <t>NC0630300</t>
-  </si>
-  <si>
-    <t>ROBBINSVILLE PD</t>
-  </si>
-  <si>
-    <t>ROBBINSVILLE</t>
-  </si>
-  <si>
-    <t>NC0380100</t>
-  </si>
-  <si>
-    <t>NC0380000</t>
-  </si>
-  <si>
-    <t>ROBERSONVILLE PD</t>
-  </si>
-  <si>
-    <t>ROBERSONVILLE</t>
-  </si>
-  <si>
-    <t>NC0590600</t>
-  </si>
-  <si>
-    <t>ROCKINGHAM PD</t>
-  </si>
-  <si>
-    <t>NC0770300</t>
-  </si>
-  <si>
-    <t>NC0770000</t>
-  </si>
-  <si>
-    <t>ROCKWELL PD</t>
-  </si>
-  <si>
-    <t>ROCKWELL</t>
-  </si>
-  <si>
-    <t>NC0800600</t>
-  </si>
-  <si>
-    <t>ROCKY MOUNT PD</t>
-  </si>
-  <si>
-    <t>ROCKY MOUNT</t>
-  </si>
-  <si>
-    <t>NC0330100</t>
-  </si>
-  <si>
-    <t>ROLESVILLE PD</t>
-  </si>
-  <si>
-    <t>ROLESVILLE</t>
-  </si>
-  <si>
-    <t>NC0921100</t>
-  </si>
-  <si>
-    <t>RONDA PD</t>
-  </si>
-  <si>
-    <t>RONDA</t>
-  </si>
-  <si>
-    <t>NC0970300</t>
-  </si>
-  <si>
-    <t>ROPER PD</t>
-  </si>
-  <si>
-    <t>ROPER</t>
-  </si>
-  <si>
-    <t>NC0940200</t>
-  </si>
-  <si>
-    <t>ROSE HILL PD</t>
-  </si>
-  <si>
-    <t>ROSE HILL</t>
-  </si>
-  <si>
-    <t>NC0310500</t>
-  </si>
-  <si>
-    <t>ROSEBORO PD</t>
-  </si>
-  <si>
-    <t>ROSEBORO</t>
-  </si>
-  <si>
-    <t>NC0820400</t>
-  </si>
-  <si>
-    <t>ROWLAND PD</t>
-  </si>
-  <si>
-    <t>ROWLAND</t>
-  </si>
-  <si>
-    <t>NC0780800</t>
-  </si>
-  <si>
-    <t>ROXBORO PD</t>
-  </si>
-  <si>
-    <t>ROXBORO</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>NC0730100</t>
-  </si>
-  <si>
-    <t>NC0730000</t>
-  </si>
-  <si>
-    <t>ROXOBEL PD</t>
-  </si>
-  <si>
-    <t>ROXOBEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0080400 </t>
-  </si>
-  <si>
-    <t>RUTHERFORDTON PD</t>
-  </si>
-  <si>
-    <t>RUTHERFORDTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0810200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0810000 </t>
-  </si>
-  <si>
-    <t>SALEMBURG PD</t>
-  </si>
-  <si>
-    <t>SALEMBURG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0820500 </t>
-  </si>
-  <si>
-    <t>SALISBURY PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0800500 </t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCNHP0500 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0800000 </t>
-  </si>
-  <si>
-    <t>SALUNDA PD</t>
-  </si>
-  <si>
-    <t>SALUNDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0750200 </t>
-  </si>
-  <si>
-    <t>SANFORD PD</t>
-  </si>
-  <si>
-    <t>SANFORD</t>
-  </si>
-  <si>
-    <t>LEE</t>
-  </si>
-  <si>
-    <t>NC0530100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0530000 </t>
-  </si>
-  <si>
-    <t>SARATOGA PD</t>
-  </si>
-  <si>
-    <t>SARATOGA</t>
-  </si>
-  <si>
-    <t>NC0980500</t>
-  </si>
-  <si>
-    <t>SCOTLAND NECK PD</t>
-  </si>
-  <si>
-    <t>SCOTLAND NECK</t>
-  </si>
-  <si>
-    <t>NC0420300</t>
-  </si>
-  <si>
-    <t>SEABOARD PD</t>
-  </si>
-  <si>
-    <t>SEABOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0660500 </t>
-  </si>
-  <si>
-    <t>SECURITY POLICE</t>
-  </si>
-  <si>
-    <t>POPE AIR FORCE BASE</t>
-  </si>
-  <si>
-    <t>NCAF00300</t>
-  </si>
-  <si>
-    <t>SELMA PD</t>
-  </si>
-  <si>
-    <t>SELMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0510800 </t>
-  </si>
-  <si>
-    <t>SEVEN SPRINGS PD</t>
-  </si>
-  <si>
-    <t>SEVEN SPRINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0960600 </t>
-  </si>
-  <si>
-    <t>SHALLOTTE PD</t>
-  </si>
-  <si>
-    <t>SHALLOTTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0100200 </t>
-  </si>
-  <si>
-    <t>SHARPSBURG PD</t>
-  </si>
-  <si>
-    <t>SHARPSBURG</t>
-  </si>
-  <si>
-    <t>NC0640600</t>
-  </si>
-  <si>
-    <t>SHELBY PD</t>
-  </si>
-  <si>
-    <t>SHELBY</t>
-  </si>
-  <si>
-    <t>NC0230200</t>
-  </si>
-  <si>
-    <t>SHERIFF’S OFFICE</t>
-  </si>
-  <si>
-    <t>SPARTA</t>
-  </si>
-  <si>
-    <t>ALLEGHANY</t>
-  </si>
-  <si>
-    <t>NC0030000</t>
-  </si>
-  <si>
-    <t>TAYLORSVILLE</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>NC0020000</t>
-  </si>
-  <si>
-    <t>WADESBORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0040000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0050000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0070000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0080000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC0090000 </t>
-  </si>
-  <si>
-    <t>SOUTHPORT</t>
-  </si>
-  <si>
-    <t>NC0100000</t>
-  </si>
-  <si>
-    <t>CAMDEN</t>
-  </si>
-  <si>
-    <t>NC0150000</t>
-  </si>
-  <si>
-    <t>YANCEYVILLE</t>
-  </si>
-  <si>
-    <t>CASWELL</t>
-  </si>
-  <si>
-    <t>NC0170000</t>
-  </si>
-  <si>
-    <t>NC0230000</t>
-  </si>
-  <si>
-    <t>NC0240000</t>
-  </si>
-  <si>
-    <t>CURRITUCK</t>
-  </si>
-  <si>
-    <t>NC0270000</t>
-  </si>
-  <si>
-    <t>NC02B0000</t>
-  </si>
-  <si>
-    <t>NC0330000</t>
-  </si>
-  <si>
-    <t>WINSTON-SALEM</t>
-  </si>
-  <si>
-    <t>NC0340000</t>
-  </si>
-  <si>
-    <t>GATESVILLE</t>
-  </si>
-  <si>
-    <t>GATES</t>
-  </si>
-  <si>
-    <t>NC0370000</t>
-  </si>
-  <si>
-    <t>SNOW HILL</t>
-  </si>
-  <si>
-    <t>NC0400000</t>
-  </si>
-  <si>
-    <t>WAYNESVILLE</t>
-  </si>
-  <si>
-    <t>NC0440000</t>
-  </si>
-  <si>
-    <t>NC0460000</t>
-  </si>
-  <si>
-    <t>WINTON</t>
-  </si>
-  <si>
-    <t>SWANQUARTER</t>
-  </si>
-  <si>
-    <t>HYDE</t>
-  </si>
-  <si>
-    <t>NC0480000</t>
-  </si>
-  <si>
-    <t>STATESVILLE</t>
-  </si>
-  <si>
-    <t>NC0490000</t>
-  </si>
-  <si>
-    <t>SYLVA</t>
-  </si>
-  <si>
-    <t>SMITHFIELD</t>
-  </si>
-  <si>
-    <t>NC0510000</t>
-  </si>
-  <si>
-    <t>TRENTON</t>
-  </si>
-  <si>
-    <t>JONES</t>
-  </si>
-  <si>
-    <t>NC0520000</t>
-  </si>
-  <si>
-    <t>NC0530000</t>
-  </si>
-  <si>
-    <t>NC0590000</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>NC0620000</t>
-  </si>
-  <si>
-    <t>WILMINGTON</t>
-  </si>
-  <si>
-    <t>NC0650000</t>
-  </si>
-  <si>
-    <t>NC0710000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ROXBORO</t>
-  </si>
-  <si>
-    <t>PIH</t>
-  </si>
-  <si>
-    <t>NC0800000</t>
-  </si>
-  <si>
-    <t>WENTWORTH</t>
-  </si>
-  <si>
-    <t>NC0790000</t>
-  </si>
-  <si>
-    <t>NC0810000</t>
-  </si>
-  <si>
-    <t>SHERIFF'S  OFFICE</t>
-  </si>
-  <si>
-    <t>NG0880000</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>wake</t>
-  </si>
-  <si>
-    <t>WARRENTON</t>
-  </si>
-  <si>
-    <t>WARREN</t>
-  </si>
-  <si>
-    <t>NC0930000</t>
-  </si>
-  <si>
-    <t>WILKESBORO</t>
-  </si>
-  <si>
-    <t>NC0970000</t>
-  </si>
-  <si>
-    <t>NC0980000</t>
-  </si>
-  <si>
-    <t>YADKINVILLE</t>
-  </si>
-  <si>
-    <t>NC0990000</t>
-  </si>
-  <si>
-    <t>SHERIFF’SOFFICE</t>
-  </si>
-  <si>
-    <t>SILER CITY PD</t>
-  </si>
-  <si>
-    <t>SILER CITY</t>
-  </si>
-  <si>
-    <t>NC0190100</t>
-  </si>
-  <si>
-    <t>SIMS PD</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>NC0980700</t>
-  </si>
-  <si>
-    <t>SMITHFIELD PD</t>
-  </si>
-  <si>
-    <t>NC0510100</t>
-  </si>
-  <si>
-    <t>SNOW HILL PD</t>
-  </si>
-  <si>
-    <t>NC0400200</t>
-  </si>
-  <si>
-    <t>SOUTHERN PINES PD</t>
-  </si>
-  <si>
-    <t>SOUTHERN PINES</t>
-  </si>
-  <si>
-    <t>NC0630400</t>
-  </si>
-  <si>
-    <t>SOUTHPORT PD</t>
-  </si>
-  <si>
-    <t>NC0100300</t>
-  </si>
-  <si>
-    <t>*YAUPON BEACH PD</t>
-  </si>
-  <si>
-    <t>NC0100600</t>
-  </si>
-  <si>
-    <t>SPARTA PD</t>
-  </si>
-  <si>
-    <t>NC0030100</t>
-  </si>
-  <si>
-    <t>SPENCER PD</t>
-  </si>
-  <si>
-    <t>SPENCER</t>
-  </si>
-  <si>
-    <t>NC0800700</t>
-  </si>
-  <si>
-    <t>SPINDALE PD</t>
-  </si>
-  <si>
-    <t>SPINDALE</t>
-  </si>
-  <si>
-    <t>NC0810300</t>
-  </si>
-  <si>
-    <t>SPRING HOPE PD</t>
-  </si>
-  <si>
-    <t>SPRING HOPE</t>
-  </si>
-  <si>
-    <t>NC0640200</t>
-  </si>
-  <si>
-    <t>SPRING LAKE PD</t>
-  </si>
-  <si>
-    <t>SPRING LAKE</t>
-  </si>
-  <si>
-    <t>NC0260300</t>
-  </si>
-  <si>
-    <t>SPRUCE PINE PD</t>
-  </si>
-  <si>
-    <t>SPRUCE PINE</t>
-  </si>
-  <si>
-    <t>NC0610100</t>
-  </si>
-  <si>
-    <t>ST. PAULS PD</t>
-  </si>
-  <si>
-    <t>ST. PAULS</t>
-  </si>
-  <si>
-    <t>NC0780400</t>
-  </si>
-  <si>
-    <t>STANFIELD PD</t>
-  </si>
-  <si>
-    <t>STANFIELD</t>
-  </si>
-  <si>
-    <t>NC0840400</t>
-  </si>
-  <si>
-    <t>STANLEY PD</t>
-  </si>
-  <si>
-    <t>NC0360700</t>
-  </si>
-  <si>
-    <t>STANTONSBURG PD</t>
-  </si>
-  <si>
-    <t>STANTONSBURG</t>
-  </si>
-  <si>
-    <t>NC0980600</t>
-  </si>
-  <si>
-    <t>STAR PD</t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>NC0620500</t>
-  </si>
-  <si>
-    <t>NCBCINPOO</t>
-  </si>
-  <si>
-    <t>NCBCISEOO</t>
-  </si>
-  <si>
-    <t>NCBCINEOO</t>
-  </si>
-  <si>
-    <t>STATE BUREAU OF INVESTIGATION SOUTHEASTER</t>
-  </si>
-  <si>
-    <t>NCBCISPOO</t>
-  </si>
-  <si>
-    <t>STATE CAPITOL POLICE</t>
-  </si>
-  <si>
-    <t>STATESVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0490200</t>
-  </si>
-  <si>
-    <t>STONEVILLE PD</t>
-  </si>
-  <si>
-    <t>STONEVILLE</t>
-  </si>
-  <si>
-    <t>NC0790700</t>
-  </si>
-  <si>
-    <t>STOVALL PD</t>
-  </si>
-  <si>
-    <t>STOVALL</t>
-  </si>
-  <si>
-    <t>NC0390400</t>
-  </si>
-  <si>
-    <t>SUNSET BEACH PD</t>
-  </si>
-  <si>
-    <t>SUNSET BEACH</t>
-  </si>
-  <si>
-    <t>NC0100700</t>
-  </si>
-  <si>
-    <t>SURF CITY PD</t>
-  </si>
-  <si>
-    <t>SURF CITY</t>
-  </si>
-  <si>
-    <t>NC0710300</t>
-  </si>
-  <si>
-    <t>SWANSBORO PD</t>
-  </si>
-  <si>
-    <t>NC0670400</t>
-  </si>
-  <si>
-    <t>*CAPE CARTERET PD</t>
-  </si>
-  <si>
-    <t>SYLVA PD</t>
-  </si>
-  <si>
-    <t>NC0500100</t>
-  </si>
-  <si>
-    <t>NC0500000</t>
-  </si>
-  <si>
-    <t>TABOR CITY PD</t>
-  </si>
-  <si>
-    <t>TABOR CITY</t>
-  </si>
-  <si>
-    <t>NC0240400</t>
-  </si>
-  <si>
-    <t>NC0330200</t>
-  </si>
-  <si>
-    <t>TAYLORSVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0020100</t>
-  </si>
-  <si>
-    <t>THOMASVILLE PD</t>
-  </si>
-  <si>
-    <t>THOMASVILLE</t>
-  </si>
-  <si>
-    <t>NC0290200</t>
-  </si>
-  <si>
-    <t>TROY PD</t>
-  </si>
-  <si>
-    <t>NC0620100</t>
-  </si>
-  <si>
-    <t>TRYON PD</t>
-  </si>
-  <si>
-    <t>TRYON</t>
-  </si>
-  <si>
-    <t>NC0750100</t>
-  </si>
-  <si>
-    <t>VALDESE PD</t>
-  </si>
-  <si>
-    <t>VALDESE</t>
-  </si>
-  <si>
-    <t>NC0120200</t>
-  </si>
-  <si>
-    <t>VANCEBORO PD</t>
-  </si>
-  <si>
-    <t>VANCEBORO</t>
-  </si>
-  <si>
-    <t>NC0250300</t>
-  </si>
-  <si>
-    <t>VASS PD</t>
-  </si>
-  <si>
-    <t>VASS</t>
-  </si>
-  <si>
-    <t>NC0630700</t>
-  </si>
-  <si>
-    <t>WADESBORO PD</t>
-  </si>
-  <si>
-    <t>NC0040100</t>
-  </si>
-  <si>
-    <t>NC0040000</t>
-  </si>
-  <si>
-    <t>WAGRAM PD</t>
-  </si>
-  <si>
-    <t>WAGRAM</t>
-  </si>
-  <si>
-    <t>NC0Ö30300</t>
-  </si>
-  <si>
-    <t>WAKE FOREST PD</t>
-  </si>
-  <si>
-    <t>WAKE FOREST</t>
-  </si>
-  <si>
-    <t>NC0920700</t>
-  </si>
-  <si>
-    <t>WALLACE PD</t>
-  </si>
-  <si>
-    <t>WALLACE</t>
-  </si>
-  <si>
-    <t>NC0310100</t>
-  </si>
-  <si>
-    <t>WALNUT COVE PD</t>
-  </si>
-  <si>
-    <t>WALNUT COVE</t>
-  </si>
-  <si>
-    <t>NC08501Ò0</t>
-  </si>
-  <si>
-    <t>WARRENTON PD</t>
-  </si>
-  <si>
-    <t>NC0930200</t>
-  </si>
-  <si>
-    <t>WARSAW PD</t>
-  </si>
-  <si>
-    <t>WARSAW</t>
-  </si>
-  <si>
-    <t>NC0310600</t>
-  </si>
-  <si>
-    <t>WASHINGTON PD</t>
-  </si>
-  <si>
-    <t>NC007010Q</t>
-  </si>
-  <si>
-    <t>NÜ0070000</t>
-  </si>
-  <si>
-    <t>WAXHAW PD</t>
-  </si>
-  <si>
-    <t>WAXHAW</t>
-  </si>
-  <si>
-    <t>NC0900300</t>
-  </si>
-  <si>
-    <t>WAYNESVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0440200</t>
-  </si>
-  <si>
-    <t>WEAVERVILLE PD</t>
-  </si>
-  <si>
-    <t>WEAVERVILLE</t>
-  </si>
-  <si>
-    <t>NC0110400</t>
-  </si>
-  <si>
-    <t>WELDON PD</t>
-  </si>
-  <si>
-    <t>WELDON</t>
-  </si>
-  <si>
-    <t>NC0420700</t>
-  </si>
-  <si>
-    <t>WENDELL PD</t>
-  </si>
-  <si>
-    <t>WENDELL</t>
-  </si>
-  <si>
-    <t>NC0920800</t>
-  </si>
-  <si>
-    <t>WEST JEFFERSON PD</t>
-  </si>
-  <si>
-    <t>WEST JEFFERSON</t>
-  </si>
-  <si>
-    <t>NC0050100</t>
-  </si>
-  <si>
-    <t>WHISPERING PINES PD</t>
-  </si>
-  <si>
-    <t>WHISPERING PINES</t>
-  </si>
-  <si>
-    <t>NC0630800</t>
-  </si>
-  <si>
-    <t>WHITAKERS PD</t>
-  </si>
-  <si>
-    <t>WHITAKERS</t>
-  </si>
-  <si>
-    <t>NC0640700</t>
-  </si>
-  <si>
-    <t>WHITE LAKE PD</t>
-  </si>
-  <si>
-    <t>WHITE LAKE</t>
-  </si>
-  <si>
-    <t>NC0090400</t>
-  </si>
-  <si>
-    <t>WHITEVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0240500</t>
-  </si>
-  <si>
-    <t>*COLUMBUS COUNTY RURAL PD</t>
-  </si>
-  <si>
-    <t>*COLUMBUS COUNTY BUREAU OF IDENTIFICATION</t>
-  </si>
-  <si>
-    <t>WILDLIFE PROTECTION DIV</t>
-  </si>
-  <si>
-    <t>NCWLF0000</t>
-  </si>
-  <si>
-    <t>WILKESBORO PD</t>
-  </si>
-  <si>
-    <t>NC097020I)</t>
-  </si>
-  <si>
-    <t>WILLIAMSTON PD</t>
-  </si>
-  <si>
-    <t>NC0590100</t>
-  </si>
-  <si>
-    <t>*HIGHWAY PATROL TROOP A</t>
-  </si>
-  <si>
-    <t>WILMINGTON PD</t>
-  </si>
-  <si>
-    <t>NC0650200</t>
-  </si>
-  <si>
-    <t>WILSON PD</t>
-  </si>
-  <si>
-    <t>NC0980100</t>
-  </si>
-  <si>
-    <t>WINDSOR PD</t>
-  </si>
-  <si>
-    <t>NC0080200</t>
-  </si>
-  <si>
-    <t>*ASKEWVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0080000</t>
-  </si>
-  <si>
-    <t>WINGATE PD</t>
-  </si>
-  <si>
-    <t>WINGATE</t>
-  </si>
-  <si>
-    <t>NC0900400</t>
-  </si>
-  <si>
-    <t>WINSTON-SALEM PD</t>
-  </si>
-  <si>
-    <t>NC0340200</t>
-  </si>
-  <si>
-    <t>WINTERVILLE PD</t>
-  </si>
-  <si>
-    <t>WINTERVILLE</t>
-  </si>
-  <si>
-    <t>NC0740800</t>
-  </si>
-  <si>
-    <t>WINTON PD</t>
-  </si>
-  <si>
-    <t>NC0460300</t>
-  </si>
-  <si>
-    <t>WOODFIN PD</t>
-  </si>
-  <si>
-    <t>WOODLAND PD</t>
-  </si>
-  <si>
-    <t>WOODLAND</t>
-  </si>
-  <si>
-    <t>NC0660600</t>
-  </si>
-  <si>
-    <t>WRIGHTSVILLE BEACH PD</t>
-  </si>
-  <si>
-    <t>WRIGHTSVILLE BEACH</t>
-  </si>
-  <si>
-    <t>NC0650300</t>
-  </si>
-  <si>
-    <t>YADKINVILLE PD</t>
-  </si>
-  <si>
-    <t>NC0990200</t>
-  </si>
-  <si>
-    <t>YAUPON BEACH PD</t>
-  </si>
-  <si>
-    <t>YOUNGSVILLE PD</t>
-  </si>
-  <si>
-    <t>YOUNGSVILLE</t>
-  </si>
-  <si>
-    <t>NC0350300</t>
-  </si>
-  <si>
-    <t>ZEBULON PD</t>
-  </si>
-  <si>
-    <t>ZEBULON</t>
-  </si>
-  <si>
-    <t>NC0920900</t>
-  </si>
-  <si>
-    <t>FEDERAL AGENCIES - NORTH CAROLINA</t>
-  </si>
-  <si>
-    <t>STATE AND LOCAL AGENCIES</t>
   </si>
   <si>
     <t>BUREAU OF ALCOHOL, TOBACCO AND FIREARMS</t>
@@ -16650,13 +16653,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s" s="14">
-        <v>3</v>
+        <v>1409</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="15">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B4" t="s" s="16">
         <v>45</v>
@@ -16665,13 +16668,13 @@
         <v>52</v>
       </c>
       <c r="D4" t="s" s="16">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E4" s="17"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B5" t="s" s="19">
         <v>440</v>
@@ -16680,13 +16683,13 @@
         <v>52</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E5" s="17"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B6" t="s" s="19">
         <v>1194</v>
@@ -16695,13 +16698,13 @@
         <v>52</v>
       </c>
       <c r="D6" t="s" s="19">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E6" s="17"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B7" t="s" s="19">
         <v>501</v>
@@ -16710,13 +16713,13 @@
         <v>52</v>
       </c>
       <c r="D7" t="s" s="19">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B8" t="s" s="19">
         <v>386</v>
@@ -16725,13 +16728,13 @@
         <v>52</v>
       </c>
       <c r="D8" t="s" s="19">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E8" s="17"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B9" t="s" s="19">
         <v>1067</v>
@@ -16740,13 +16743,13 @@
         <v>52</v>
       </c>
       <c r="D9" t="s" s="19">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E9" s="17"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B10" t="s" s="19">
         <v>363</v>
@@ -16755,13 +16758,13 @@
         <v>52</v>
       </c>
       <c r="D10" t="s" s="19">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B11" t="s" s="19">
         <v>611</v>
@@ -16770,13 +16773,13 @@
         <v>52</v>
       </c>
       <c r="D11" t="s" s="19">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B12" t="s" s="19">
         <v>1210</v>
@@ -16785,13 +16788,13 @@
         <v>52</v>
       </c>
       <c r="D12" t="s" s="19">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B13" t="s" s="19">
         <v>72</v>
@@ -16800,13 +16803,13 @@
         <v>52</v>
       </c>
       <c r="D13" t="s" s="19">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B14" t="s" s="19">
         <v>246</v>
@@ -16815,13 +16818,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s" s="19">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B15" t="s" s="19">
         <v>181</v>
@@ -16830,13 +16833,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B16" t="s" s="19">
         <v>600</v>
@@ -16845,13 +16848,13 @@
         <v>52</v>
       </c>
       <c r="D16" t="s" s="19">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E16" s="17"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B17" t="s" s="19">
         <v>1168</v>
@@ -16860,13 +16863,13 @@
         <v>52</v>
       </c>
       <c r="D17" t="s" s="19">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E17" s="17"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="18">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B18" t="s" s="19">
         <v>603</v>
@@ -16875,13 +16878,13 @@
         <v>52</v>
       </c>
       <c r="D18" t="s" s="19">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="E18" s="17"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="18">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B19" t="s" s="19">
         <v>1194</v>
@@ -16890,13 +16893,13 @@
         <v>52</v>
       </c>
       <c r="D19" t="s" s="19">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="E19" s="17"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="18">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B20" t="s" s="19">
         <v>516</v>
@@ -16905,28 +16908,28 @@
         <v>52</v>
       </c>
       <c r="D20" t="s" s="19">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E20" s="17"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="18">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B21" t="s" s="19">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C21" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D21" t="s" s="19">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E21" s="17"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="18">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B22" t="s" s="19">
         <v>795</v>
@@ -16935,13 +16938,13 @@
         <v>52</v>
       </c>
       <c r="D22" t="s" s="19">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E22" s="17"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="18">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B23" t="s" s="19">
         <v>246</v>
@@ -16950,13 +16953,13 @@
         <v>52</v>
       </c>
       <c r="D23" t="s" s="19">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E23" s="17"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="18">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B24" t="s" s="19">
         <v>1194</v>
@@ -16965,13 +16968,13 @@
         <v>52</v>
       </c>
       <c r="D24" t="s" s="19">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E24" s="17"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="18">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B25" t="s" s="19">
         <v>516</v>
@@ -16980,13 +16983,13 @@
         <v>52</v>
       </c>
       <c r="D25" t="s" s="19">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E25" s="17"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="18">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B26" t="s" s="19">
         <v>246</v>
@@ -16995,28 +16998,28 @@
         <v>52</v>
       </c>
       <c r="D26" t="s" s="19">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E26" s="17"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="18">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B27" t="s" s="19">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C27" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D27" t="s" s="19">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="18">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B28" t="s" s="19">
         <v>440</v>
@@ -17025,13 +17028,13 @@
         <v>52</v>
       </c>
       <c r="D28" t="s" s="19">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E28" s="17"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="18">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B29" t="s" s="19">
         <v>516</v>
@@ -17040,13 +17043,13 @@
         <v>52</v>
       </c>
       <c r="D29" t="s" s="19">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E29" s="17"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="18">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B30" t="s" s="19">
         <v>691</v>
@@ -17055,13 +17058,13 @@
         <v>52</v>
       </c>
       <c r="D30" t="s" s="19">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E30" s="17"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="18">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B31" t="s" s="19">
         <v>653</v>
@@ -17070,7 +17073,7 @@
         <v>52</v>
       </c>
       <c r="D31" t="s" s="19">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -17079,19 +17082,19 @@
         <v>1124</v>
       </c>
       <c r="B32" t="s" s="19">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C32" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D32" t="s" s="19">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E32" s="17"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="18">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B33" t="s" s="19">
         <v>501</v>
@@ -17100,13 +17103,13 @@
         <v>52</v>
       </c>
       <c r="D33" t="s" s="19">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E33" s="17"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="18">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B34" t="s" s="19">
         <v>1155</v>
@@ -17115,13 +17118,13 @@
         <v>52</v>
       </c>
       <c r="D34" t="s" s="19">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E34" s="17"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="18">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B35" t="s" s="19">
         <v>198</v>
@@ -17130,13 +17133,13 @@
         <v>52</v>
       </c>
       <c r="D35" t="s" s="19">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E35" s="17"/>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="18">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B36" t="s" s="19">
         <v>386</v>
@@ -17145,13 +17148,13 @@
         <v>52</v>
       </c>
       <c r="D36" t="s" s="19">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E36" s="17"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B37" t="s" s="19">
         <v>1168</v>
@@ -17160,13 +17163,13 @@
         <v>52</v>
       </c>
       <c r="D37" t="s" s="19">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="E37" s="17"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B38" t="s" s="19">
         <v>79</v>
@@ -17175,13 +17178,13 @@
         <v>52</v>
       </c>
       <c r="D38" t="s" s="19">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E38" s="17"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B39" t="s" s="19">
         <v>398</v>
@@ -17190,28 +17193,28 @@
         <v>52</v>
       </c>
       <c r="D39" t="s" s="19">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B40" t="s" s="19">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C40" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D40" t="s" s="19">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="E40" s="17"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B41" t="s" s="19">
         <v>366</v>
@@ -17220,13 +17223,13 @@
         <v>52</v>
       </c>
       <c r="D41" t="s" s="19">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E41" s="17"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B42" t="s" s="19">
         <v>246</v>
@@ -17235,13 +17238,13 @@
         <v>52</v>
       </c>
       <c r="D42" t="s" s="19">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E42" s="17"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B43" t="s" s="19">
         <v>1036</v>
@@ -17250,13 +17253,13 @@
         <v>52</v>
       </c>
       <c r="D43" t="s" s="19">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E43" s="17"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="18">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B44" t="s" s="19">
         <v>1194</v>
@@ -17265,43 +17268,43 @@
         <v>52</v>
       </c>
       <c r="D44" t="s" s="19">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="18">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B45" t="s" s="19">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C45" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D45" t="s" s="19">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E45" s="17"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="18">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B46" t="s" s="19">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C46" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D46" t="s" s="19">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="E46" s="17"/>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="18">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B47" t="s" s="19">
         <v>653</v>
@@ -17310,13 +17313,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="s" s="19">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E47" s="17"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="18">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B48" t="s" s="19">
         <v>246</v>
@@ -17325,13 +17328,13 @@
         <v>52</v>
       </c>
       <c r="D48" t="s" s="19">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E48" s="17"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="18">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B49" t="s" s="19">
         <v>1194</v>
@@ -17340,13 +17343,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s" s="19">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E49" s="17"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="18">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B50" t="s" s="19">
         <v>72</v>
@@ -17355,13 +17358,13 @@
         <v>52</v>
       </c>
       <c r="D50" t="s" s="19">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E50" s="17"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="18">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B51" t="s" s="19">
         <v>45</v>
@@ -17370,13 +17373,13 @@
         <v>52</v>
       </c>
       <c r="D51" t="s" s="19">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E51" s="17"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="18">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B52" t="s" s="19">
         <v>72</v>
@@ -17385,13 +17388,13 @@
         <v>52</v>
       </c>
       <c r="D52" t="s" s="19">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="E52" s="17"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="18">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B53" t="s" s="19">
         <v>516</v>
@@ -17400,43 +17403,43 @@
         <v>52</v>
       </c>
       <c r="D53" t="s" s="19">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="E53" s="17"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" t="s" s="18">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B54" t="s" s="19">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C54" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D54" t="s" s="19">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E54" s="17"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" t="s" s="18">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B55" t="s" s="19">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C55" t="s" s="19">
         <v>52</v>
       </c>
       <c r="D55" t="s" s="19">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="E55" s="17"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="20">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -17445,7 +17448,7 @@
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" t="s" s="18">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B57" t="s" s="19">
         <v>72</v>
@@ -17454,7 +17457,7 @@
         <v>52</v>
       </c>
       <c r="D57" t="s" s="19">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E57" s="17"/>
     </row>
